--- a/Preprocessed Data/cardiovascular death/test_c.xlsx
+++ b/Preprocessed Data/cardiovascular death/test_c.xlsx
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.03565910225382627</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D2">
-        <v>0.3295267382243354</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F2">
-        <v>-0.4289227937995818</v>
+        <v>-0.4041768487616828</v>
       </c>
       <c r="G2">
-        <v>0.006074112244521162</v>
+        <v>-0.2036657856591278</v>
       </c>
       <c r="H2">
-        <v>-0.3288283879537857</v>
+        <v>-0.1709401709401709</v>
       </c>
       <c r="I2">
-        <v>-0.7646778482253529</v>
+        <v>-0.32</v>
       </c>
       <c r="J2">
-        <v>1.100282825408589</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>-0.6896633879735508</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S2">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U2">
         <v>6</v>
@@ -1212,94 +1212,94 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>-0.2111674465835296</v>
+        <v>-0.230110499370671</v>
       </c>
       <c r="BO2">
-        <v>-0.5216972199272765</v>
+        <v>-0.2984274318443782</v>
       </c>
       <c r="BP2">
-        <v>-0.5662506368333036</v>
+        <v>-0.4022352038259789</v>
       </c>
       <c r="BQ2">
-        <v>0.545150334803896</v>
+        <v>0.5951940850277269</v>
       </c>
       <c r="BR2">
-        <v>0.9935222746837655</v>
+        <v>0.7937219730941708</v>
       </c>
       <c r="BS2">
-        <v>0.293149838533026</v>
+        <v>0.5277777777777777</v>
       </c>
       <c r="BT2">
-        <v>-0.4530109713597787</v>
+        <v>-0.5298688809432507</v>
       </c>
       <c r="BU2">
-        <v>0.9975964191061949</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="BV2">
-        <v>-0.8628059480836008</v>
+        <v>-1.069075451647184</v>
       </c>
       <c r="BW2">
-        <v>0.738975033095861</v>
+        <v>0.2252252252252266</v>
       </c>
       <c r="BX2">
-        <v>-0.6170418509728772</v>
+        <v>-0.4009779951100245</v>
       </c>
       <c r="BY2">
-        <v>0.6934520937819971</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="BZ2">
-        <v>-0.2006380695672353</v>
+        <v>-0.07049608355091389</v>
       </c>
       <c r="CA2">
-        <v>-0.7144015397924161</v>
+        <v>-0.3307810107197551</v>
       </c>
       <c r="CB2">
-        <v>0.1196100593122264</v>
+        <v>0.4945454545454547</v>
       </c>
       <c r="CC2">
-        <v>1.281174516587688</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD2">
-        <v>1.031986753310056</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CE2">
-        <v>0.7602607901007213</v>
+        <v>0.9855318722394971</v>
       </c>
       <c r="CF2">
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>-0.08856964766094561</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH2">
-        <v>-0.06496894687180826</v>
+        <v>-0.008476558617119571</v>
       </c>
       <c r="CI2">
-        <v>1.931638076803555</v>
+        <v>1.48936170212766</v>
       </c>
       <c r="CJ2">
-        <v>0.9307878309719945</v>
+        <v>0.8736591422055402</v>
       </c>
       <c r="CK2">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL2">
         <v>1</v>
       </c>
       <c r="CM2">
-        <v>0.2107609365247665</v>
+        <v>0.34790446146913</v>
       </c>
       <c r="CN2">
-        <v>-0.03583012811248099</v>
+        <v>0.4939195509822266</v>
       </c>
       <c r="CO2">
-        <v>-0.319273429728601</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP2">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ2">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR2">
         <v>1</v>
@@ -1311,28 +1311,28 @@
         <v>0</v>
       </c>
       <c r="CU2">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV2">
-        <v>-0.4427515217304213</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW2">
-        <v>0.63624452614811</v>
+        <v>0.32</v>
       </c>
       <c r="CX2">
-        <v>-0.3524952503374483</v>
+        <v>-0.01329503284001265</v>
       </c>
       <c r="CY2">
-        <v>-0.6767943785119881</v>
+        <v>-0.0916304211344546</v>
       </c>
       <c r="CZ2">
-        <v>-0.318348544465571</v>
+        <v>0.1068733452663182</v>
       </c>
       <c r="DA2">
-        <v>-0.6989518971002384</v>
+        <v>-0.4549180327868853</v>
       </c>
       <c r="DB2">
-        <v>-2.0103281553725</v>
+        <v>-1.273732030350838</v>
       </c>
       <c r="DC2">
         <v>0</v>
@@ -1346,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5411563133832793</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>0.7238801810438038</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F3">
-        <v>-0.7276505136012789</v>
+        <v>-0.6733742529797119</v>
       </c>
       <c r="G3">
-        <v>0.1479429972670834</v>
+        <v>-0.07684881767132548</v>
       </c>
       <c r="H3">
-        <v>0.7291412080714378</v>
+        <v>1.094017094017094</v>
       </c>
       <c r="I3">
-        <v>1.123920556864623</v>
+        <v>1.12</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>-0.8207927402915904</v>
+        <v>-0.1159420289855072</v>
       </c>
       <c r="S3">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T3">
-        <v>0.8150717254416858</v>
+        <v>1.106382978723404</v>
       </c>
       <c r="U3">
         <v>9</v>
@@ -1535,94 +1535,94 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>-0.2169572970451102</v>
+        <v>-0.2498783811958024</v>
       </c>
       <c r="BO3">
-        <v>-0.5228457933642543</v>
+        <v>-0.2994429747282153</v>
       </c>
       <c r="BP3">
-        <v>-0.5864308014632209</v>
+        <v>-0.4227858859944564</v>
       </c>
       <c r="BQ3">
-        <v>-0.6771395135244954</v>
+        <v>-0.3585951940850273</v>
       </c>
       <c r="BR3">
-        <v>-0.8466491694473801</v>
+        <v>-0.5246636771300449</v>
       </c>
       <c r="BS3">
-        <v>0.9673944671589867</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="BT3">
-        <v>-0.5616028478532946</v>
+        <v>-0.6533256710667075</v>
       </c>
       <c r="BU3">
-        <v>-1.520536623263528</v>
+        <v>-1.891891891891892</v>
       </c>
       <c r="BV3">
-        <v>-0.7665589725582763</v>
+        <v>-0.928799149840595</v>
       </c>
       <c r="BW3">
-        <v>-1.631659382576645</v>
+        <v>-1.792792792792793</v>
       </c>
       <c r="BX3">
-        <v>0.6525131332573153</v>
+        <v>0.6259168704156477</v>
       </c>
       <c r="BY3">
-        <v>-0.3852511632122206</v>
+        <v>-0.5087719298245614</v>
       </c>
       <c r="BZ3">
-        <v>-0.4971835629104381</v>
+        <v>-0.5143603133159268</v>
       </c>
       <c r="CA3">
-        <v>-0.7217006164675864</v>
+        <v>-0.3409903011740685</v>
       </c>
       <c r="CB3">
-        <v>-0.7654737664963864</v>
+        <v>-0.5236363636363637</v>
       </c>
       <c r="CC3">
-        <v>2.562349033175377</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CD3">
-        <v>1.096281185991243</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="CE3">
-        <v>0.6908243380913571</v>
+        <v>0.9206308544312694</v>
       </c>
       <c r="CF3">
-        <v>0.9562629352720579</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG3">
-        <v>2.029531563573451</v>
+        <v>1.295774647887324</v>
       </c>
       <c r="CH3">
-        <v>1.964269988979742</v>
+        <v>1.901386400133555</v>
       </c>
       <c r="CI3">
-        <v>-1.162551954579395</v>
+        <v>-0.6382978723404256</v>
       </c>
       <c r="CJ3">
-        <v>-2.227864818006046</v>
+        <v>-1.328582334259987</v>
       </c>
       <c r="CK3">
-        <v>-2.012767811752151</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL3">
         <v>1</v>
       </c>
       <c r="CM3">
-        <v>-0.1802000527035778</v>
+        <v>-0.03785488958990578</v>
       </c>
       <c r="CN3">
-        <v>-0.5316707914184599</v>
+        <v>0.02245088868101008</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP3">
-        <v>1.508495052825636</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="CQ3">
-        <v>-2.681652050097809</v>
+        <v>-2.499999999999998</v>
       </c>
       <c r="CR3">
         <v>1</v>
@@ -1634,28 +1634,28 @@
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>3.096093863154411</v>
+        <v>2</v>
       </c>
       <c r="CV3">
-        <v>2.745059434728612</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="CW3">
-        <v>-1.79305275550831</v>
+        <v>-1.92</v>
       </c>
       <c r="CX3">
-        <v>0.396919491387604</v>
+        <v>0.3803267716394836</v>
       </c>
       <c r="CY3">
-        <v>4.641983186062035</v>
+        <v>2.474538340266613</v>
       </c>
       <c r="CZ3">
-        <v>0.8279101782781185</v>
+        <v>0.9798521539446173</v>
       </c>
       <c r="DA3">
-        <v>-0.3500582526849849</v>
+        <v>-0.1841917582856452</v>
       </c>
       <c r="DB3">
-        <v>0.3547982651901371</v>
+        <v>0.3176017976696639</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -1669,28 +1669,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.2279309074661948</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.4591801474146</v>
+        <v>-0.9999999999999981</v>
       </c>
       <c r="E4">
-        <v>-0.1666557723167321</v>
+        <v>-0.5070422535211268</v>
       </c>
       <c r="F4">
-        <v>0.1422804448969297</v>
+        <v>0.1105608837798643</v>
       </c>
       <c r="G4">
-        <v>-0.3848264774009361</v>
+        <v>-0.5530928468191357</v>
       </c>
       <c r="H4">
-        <v>-1.329610438247916</v>
+        <v>-1.367521367521368</v>
       </c>
       <c r="I4">
-        <v>-2.02374345161867</v>
+        <v>-1.28</v>
       </c>
       <c r="J4">
-        <v>0.7001799798054656</v>
+        <v>0.6883383540807024</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.1116826539700249</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="S4">
-        <v>0.2251489369681473</v>
+        <v>2.523809523809524</v>
       </c>
       <c r="T4">
-        <v>0.9509170130153001</v>
+        <v>1.276595744680851</v>
       </c>
       <c r="U4">
         <v>9</v>
@@ -1858,94 +1858,94 @@
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.2688473432468889</v>
+        <v>1.408770453194135</v>
       </c>
       <c r="BO4">
-        <v>-0.1929065878580151</v>
+        <v>-0.007718125917162167</v>
       </c>
       <c r="BP4">
-        <v>-0.3709514880259924</v>
+        <v>-0.2033502686177129</v>
       </c>
       <c r="BQ4">
-        <v>-0.2507593338750564</v>
+        <v>-0.02587800369685712</v>
       </c>
       <c r="BR4">
-        <v>-0.6463584000181396</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS4">
-        <v>-0.7328745963325664</v>
+        <v>-0.4444444444444445</v>
       </c>
       <c r="BT4">
-        <v>1.51250199317286</v>
+        <v>1.704699020291317</v>
       </c>
       <c r="BU4">
-        <v>0.05329652821754863</v>
+        <v>-0.2702702702702703</v>
       </c>
       <c r="BV4">
-        <v>0.4788185592391045</v>
+        <v>0.8862911795961746</v>
       </c>
       <c r="BW4">
-        <v>-0.2558447663381374</v>
+        <v>-0.6216216216216212</v>
       </c>
       <c r="BX4">
-        <v>-0.1938568562294797</v>
+        <v>-0.05867970660146712</v>
       </c>
       <c r="BY4">
-        <v>0.3852511632122206</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="BZ4">
-        <v>-0.2425033156862757</v>
+        <v>-0.1331592689295039</v>
       </c>
       <c r="CA4">
-        <v>-0.3669654900543065</v>
+        <v>0.155181214905564</v>
       </c>
       <c r="CB4">
-        <v>-0.7022534932243426</v>
+        <v>-0.4509090909090909</v>
       </c>
       <c r="CC4">
-        <v>-1.921761774881535</v>
+        <v>-1.125000000000002</v>
       </c>
       <c r="CD4">
-        <v>-1.411201688575071</v>
+        <v>-1.095238095238095</v>
       </c>
       <c r="CE4">
-        <v>-1.189723689571452</v>
+        <v>-0.8370839697091126</v>
       </c>
       <c r="CF4">
-        <v>-0.9562629352720579</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG4">
-        <v>-1.229085684479467</v>
+        <v>-0.9577464788732394</v>
       </c>
       <c r="CH4">
-        <v>-1.056565189030239</v>
+        <v>-0.9417392215178932</v>
       </c>
       <c r="CI4">
-        <v>-1.038784353324077</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ4">
-        <v>0.6238921751231963</v>
+        <v>0.6596886879120037</v>
       </c>
       <c r="CK4">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL4">
         <v>1</v>
       </c>
       <c r="CM4">
-        <v>-0.9347182235040736</v>
+        <v>-0.7823343848580443</v>
       </c>
       <c r="CN4">
-        <v>-1.110151565275434</v>
+        <v>-0.5275958840037417</v>
       </c>
       <c r="CO4">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR4">
         <v>1</v>
@@ -1957,28 +1957,28 @@
         <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.5160156438590684</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV4">
-        <v>-0.4427515217304213</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW4">
-        <v>0.75192534908413</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="CX4">
-        <v>0.2709732870031492</v>
+        <v>0.3141749207657777</v>
       </c>
       <c r="CY4">
-        <v>0.6382748350198255</v>
+        <v>0.5428555098664759</v>
       </c>
       <c r="CZ4">
-        <v>1.794853736035388</v>
+        <v>1.716266384311043</v>
       </c>
       <c r="DA4">
-        <v>0.8055349768489389</v>
+        <v>0.7124982642423141</v>
       </c>
       <c r="DB4">
-        <v>0.423028648571912</v>
+        <v>0.363509414374735</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -1992,28 +1992,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6372922159894636</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D5">
-        <v>0.8553313286502933</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5">
-        <v>-0.666655772316732</v>
+        <v>-1.126760563380282</v>
       </c>
       <c r="F5">
-        <v>-1.489396564643688</v>
+        <v>-1.359818951684188</v>
       </c>
       <c r="G5">
-        <v>-0.5174244528173912</v>
+        <v>-0.6716225244222388</v>
       </c>
       <c r="H5">
-        <v>-0.5575785708781583</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I5">
-        <v>-1.604054917154231</v>
+        <v>-0.96</v>
       </c>
       <c r="J5">
-        <v>0.500128557003904</v>
+        <v>0.4916702529147874</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2037,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>-0.4711144674434847</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="S5">
-        <v>-0.4506479664226739</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="T5">
-        <v>-0.3396132189340357</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U5">
         <v>3</v>
@@ -2181,94 +2181,94 @@
         <v>1</v>
       </c>
       <c r="BN5">
-        <v>-0.226501503665372</v>
+        <v>-0.2824644988919176</v>
       </c>
       <c r="BO5">
-        <v>-0.02774172762060924</v>
+        <v>0.1383169407786167</v>
       </c>
       <c r="BP5">
-        <v>0.2845301556939152</v>
+        <v>0.4641663336695019</v>
       </c>
       <c r="BQ5">
-        <v>-1.738352405096432</v>
+        <v>-1.186691312384473</v>
       </c>
       <c r="BR5">
-        <v>-2.048393786022821</v>
+        <v>-1.385650224215247</v>
       </c>
       <c r="BS5">
-        <v>0.8794495155990787</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="BT5">
-        <v>-0.8873784773338426</v>
+        <v>-1.023696041437078</v>
       </c>
       <c r="BU5">
-        <v>-0.8910033626710976</v>
+        <v>-1.243243243243243</v>
       </c>
       <c r="BV5">
-        <v>-0.6119804967145732</v>
+        <v>-0.7035069075451644</v>
       </c>
       <c r="BW5">
-        <v>-0.7003387192767324</v>
+        <v>-1</v>
       </c>
       <c r="BX5">
-        <v>-0.133401856980423</v>
+        <v>-0.009779951100244636</v>
       </c>
       <c r="BY5">
-        <v>0.1155753489636662</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="BZ5">
-        <v>-0.9681675817496425</v>
+        <v>-1.219321148825065</v>
       </c>
       <c r="CA5">
-        <v>-0.7961511985543243</v>
+        <v>-0.4451250638080655</v>
       </c>
       <c r="CB5">
-        <v>-0.7781178211507951</v>
+        <v>-0.5381818181818182</v>
       </c>
       <c r="CC5">
-        <v>2.135290860979482</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD5">
-        <v>1.803519945484306</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE5">
-        <v>2.014299261215947</v>
+        <v>2.157659346942208</v>
       </c>
       <c r="CF5">
-        <v>1.314861535999081</v>
+        <v>0.9565217391304349</v>
       </c>
       <c r="CG5">
-        <v>1.785135269969482</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="CH5">
-        <v>2.254198112011228</v>
+        <v>2.174258644547482</v>
       </c>
       <c r="CI5">
-        <v>0.5701944629950569</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ5">
-        <v>-1.120317884372673</v>
+        <v>-0.5563904963354293</v>
       </c>
       <c r="CK5">
-        <v>-0.686187394522917</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL5">
         <v>1</v>
       </c>
       <c r="CM5">
-        <v>0.4811451720658646</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN5">
-        <v>0.6174202695763481</v>
+        <v>1.115060804490178</v>
       </c>
       <c r="CO5">
-        <v>0.9578202891858016</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP5">
-        <v>2.477711544261077</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ5">
-        <v>1.822255175734383</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR5">
         <v>1</v>
@@ -2280,28 +2280,28 @@
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV5">
-        <v>1.23970426084518</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="CW5">
-        <v>-0.46272329174408</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="CX5">
-        <v>-1.972742402435487</v>
+        <v>-0.86431192936322</v>
       </c>
       <c r="CY5">
-        <v>-2.598600972173956</v>
+        <v>-1.018851006360209</v>
       </c>
       <c r="CZ5">
-        <v>-0.9238110753275125</v>
+        <v>-0.3542406671322543</v>
       </c>
       <c r="DA5">
-        <v>-0.8151490550404482</v>
+        <v>-0.5450819672131147</v>
       </c>
       <c r="DB5">
-        <v>-0.3696506339747714</v>
+        <v>-0.1698309373801119</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.2279309074661948</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4609778858308248</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6">
-        <v>0.06061695495599521</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="F6">
-        <v>-0.3667858080436199</v>
+        <v>-0.3481823287936615</v>
       </c>
       <c r="G6">
-        <v>0.2069302710462629</v>
+        <v>-0.02411993910607671</v>
       </c>
       <c r="H6">
-        <v>-0.3574221608193322</v>
+        <v>-0.2051282051282051</v>
       </c>
       <c r="I6">
-        <v>0.6342839333227771</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>-0.616813747796862</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="S6">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T6">
-        <v>-0.7471490816548787</v>
+        <v>-0.851063829787234</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -2504,94 +2504,94 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>-0.2468474000530202</v>
+        <v>-0.3519300711180436</v>
       </c>
       <c r="BO6">
-        <v>-0.5242470529573672</v>
+        <v>-0.3006819370464967</v>
       </c>
       <c r="BP6">
-        <v>-0.5709095143466301</v>
+        <v>-0.4069796205735162</v>
       </c>
       <c r="BQ6">
-        <v>1.265259082656282</v>
+        <v>1.157116451016636</v>
       </c>
       <c r="BR6">
-        <v>1.644467275328797</v>
+        <v>1.260089686098655</v>
       </c>
       <c r="BS6">
-        <v>-0.2931498385330267</v>
+        <v>-0.0277777777777778</v>
       </c>
       <c r="BT6">
-        <v>0.6111894182766774</v>
+        <v>0.6800076622666255</v>
       </c>
       <c r="BU6">
-        <v>1.259901944353041</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV6">
-        <v>0.178411332599455</v>
+        <v>0.4484590860786396</v>
       </c>
       <c r="BW6">
-        <v>1.141136228611732</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX6">
-        <v>1.196608126498826</v>
+        <v>1.06601466992665</v>
       </c>
       <c r="BY6">
-        <v>-0.5008265121758868</v>
+        <v>-0.6140350877192983</v>
       </c>
       <c r="BZ6">
-        <v>-0.4239193822021173</v>
+        <v>-0.4046997389033941</v>
       </c>
       <c r="CA6">
-        <v>-0.8560036272907213</v>
+        <v>-0.5288412455334355</v>
       </c>
       <c r="CB6">
-        <v>0.05638978604018267</v>
+        <v>0.4218181818181819</v>
       </c>
       <c r="CC6">
-        <v>0.4270581721958949</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD6">
-        <v>0.5176312918605555</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE6">
-        <v>0.1276183895566731</v>
+        <v>0.3942122624988954</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>-0.007104216459622636</v>
+        <v>-0.1126760563380282</v>
       </c>
       <c r="CH6">
-        <v>-0.0888725014726084</v>
+        <v>-0.03097391598000932</v>
       </c>
       <c r="CI6">
-        <v>0.8177296655056929</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="CJ6">
-        <v>0.3584689051999133</v>
+        <v>0.4746331598743519</v>
       </c>
       <c r="CK6">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>1</v>
       </c>
       <c r="CM6">
-        <v>-0.5236611086611883</v>
+        <v>-0.3767462821090583</v>
       </c>
       <c r="CN6">
-        <v>-0.921259884016014</v>
+        <v>-0.3479887745556595</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP6">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ6">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR6">
         <v>1</v>
@@ -2603,28 +2603,28 @@
         <v>0</v>
       </c>
       <c r="CU6">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV6">
-        <v>0.708402434768674</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="CW6">
-        <v>0.23136164587204</v>
+        <v>-0.05333333333333334</v>
       </c>
       <c r="CX6">
-        <v>-1.04865717374535</v>
+        <v>-0.3789463834806038</v>
       </c>
       <c r="CY6">
-        <v>-0.4329019591650384</v>
+        <v>0.02604118668748244</v>
       </c>
       <c r="CZ6">
-        <v>-0.8677296253556259</v>
+        <v>-0.3115296138473351</v>
       </c>
       <c r="DA6">
-        <v>0.7037380879061828</v>
+        <v>0.6335083114574821</v>
       </c>
       <c r="DB6">
-        <v>-0.1018929367767292</v>
+        <v>0.0103251327392826</v>
       </c>
       <c r="DC6">
         <v>0</v>
@@ -2638,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2527486055647266</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>0.7896057548470485</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E7">
-        <v>1.287889682228722</v>
+        <v>1.295774647887324</v>
       </c>
       <c r="F7">
-        <v>0.7860123404085086</v>
+        <v>0.690657553078259</v>
       </c>
       <c r="G7">
-        <v>1.615949290214653</v>
+        <v>1.235405853456998</v>
       </c>
       <c r="H7">
-        <v>-0.8149225266680775</v>
+        <v>-0.7521367521367521</v>
       </c>
       <c r="I7">
-        <v>4.131688387193102</v>
+        <v>3.413333333333334</v>
       </c>
       <c r="J7">
-        <v>-2.700694207821082</v>
+        <v>-2.655019365739852</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2683,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>-0.004876770312676997</v>
+        <v>1.507246376811594</v>
       </c>
       <c r="S7">
-        <v>-0.02827490180341061</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="T7">
-        <v>0.3396132189340357</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -2827,94 +2827,94 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>-0.2097652171748655</v>
+        <v>-0.2253229654911469</v>
       </c>
       <c r="BO7">
-        <v>-0.4362203847473895</v>
+        <v>-0.2228507304292192</v>
       </c>
       <c r="BP7">
-        <v>-0.4927549755268145</v>
+        <v>-0.3273901267926348</v>
       </c>
       <c r="BQ7">
-        <v>1.198933276933035</v>
+        <v>1.105360443622921</v>
       </c>
       <c r="BR7">
-        <v>-0.9593127272513275</v>
+        <v>-0.6053811659192825</v>
       </c>
       <c r="BS7">
-        <v>-1.143284370278803</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="BT7">
-        <v>6.095079181199233</v>
+        <v>6.914575563501193</v>
       </c>
       <c r="BU7">
-        <v>1.050057524155564</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV7">
-        <v>3.404143300205785</v>
+        <v>5.149840595111583</v>
       </c>
       <c r="BW7">
-        <v>1.141136228611732</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX7">
-        <v>1.257063125747883</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="BY7">
-        <v>-0.616401861139553</v>
+        <v>-0.7192982456140351</v>
       </c>
       <c r="BZ7">
-        <v>0.7762176732103737</v>
+        <v>1.391644908616188</v>
       </c>
       <c r="CA7">
-        <v>-0.4253581034556694</v>
+        <v>0.07350689127105656</v>
       </c>
       <c r="CB7">
-        <v>0.4230673710180366</v>
+        <v>0.8436363636363639</v>
       </c>
       <c r="CC7">
-        <v>2.135290860979482</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD7">
-        <v>1.610636647440744</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="CE7">
-        <v>-0.02406125590187838</v>
+        <v>0.25243999323428</v>
       </c>
       <c r="CF7">
-        <v>-0.2390657338180147</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG7">
-        <v>1.70366983876816</v>
+        <v>1.070422535211268</v>
       </c>
       <c r="CH7">
-        <v>0.7330876631412959</v>
+        <v>0.742632012937345</v>
       </c>
       <c r="CI7">
-        <v>0.3226592604844211</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ7">
-        <v>-1.193385395592431</v>
+        <v>-0.6073338325209773</v>
       </c>
       <c r="CK7">
-        <v>-0.686187394522917</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL7">
         <v>1</v>
       </c>
       <c r="CM7">
-        <v>0.4811451720658646</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN7">
-        <v>-0.5513470082163161</v>
+        <v>0.00374181478016817</v>
       </c>
       <c r="CO7">
-        <v>1.596367148643004</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP7">
-        <v>0.8623507252020098</v>
+        <v>0.5</v>
       </c>
       <c r="CQ7">
-        <v>0.6962783692763365</v>
+        <v>0.5</v>
       </c>
       <c r="CR7">
         <v>2</v>
@@ -2926,28 +2926,28 @@
         <v>0</v>
       </c>
       <c r="CU7">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV7">
-        <v>-1.682455782575601</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="CW7">
-        <v>1.04112740642418</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="CX7">
-        <v>-0.6105588088369344</v>
+        <v>-0.1488400627297977</v>
       </c>
       <c r="CY7">
-        <v>-0.2649786798701378</v>
+        <v>0.1070597042710642</v>
       </c>
       <c r="CZ7">
-        <v>0.3276809901392144</v>
+        <v>0.5988827688808758</v>
       </c>
       <c r="DA7">
-        <v>5.25879329183415</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB7">
-        <v>0.008967255578550427</v>
+        <v>0.08491546869005558</v>
       </c>
       <c r="DC7">
         <v>1</v>
@@ -2961,28 +2961,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.310243534232753</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="D8">
-        <v>0.0008988692081117098</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E8">
-        <v>-0.3484739541349139</v>
+        <v>-0.7323943661971831</v>
       </c>
       <c r="F8">
-        <v>-0.5135731491549858</v>
+        <v>-0.4804592103146565</v>
       </c>
       <c r="G8">
-        <v>-0.4231099925566161</v>
+        <v>-0.5873145813114193</v>
       </c>
       <c r="H8">
-        <v>-0.9007038452647173</v>
+        <v>-0.8547008547008547</v>
       </c>
       <c r="I8">
-        <v>-1.324262560844605</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="J8">
-        <v>0.4001028456031233</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>-0.1942858347720676</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="S8">
-        <v>0.05619971112044203</v>
+        <v>2.047619047619048</v>
       </c>
       <c r="T8">
-        <v>-0.5433811502944572</v>
+        <v>-0.5957446808510638</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -3150,94 +3150,94 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>-0.2113800426551657</v>
+        <v>-0.2308363512814375</v>
       </c>
       <c r="BO8">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP8">
-        <v>1.879012299292322</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ8">
-        <v>-0.5255376718713615</v>
+        <v>-0.2402957486136778</v>
       </c>
       <c r="BR8">
-        <v>-0.3584404189636067</v>
+        <v>-0.1748878923766815</v>
       </c>
       <c r="BS8">
-        <v>0.1465749192665127</v>
+        <v>0.3888888888888886</v>
       </c>
       <c r="BT8">
-        <v>-0.4421517837104271</v>
+        <v>-0.517523201930905</v>
       </c>
       <c r="BU8">
-        <v>-0.1040867869305591</v>
+        <v>-0.4324324324324325</v>
       </c>
       <c r="BV8">
-        <v>1.692113765861377</v>
+        <v>2.654622741764081</v>
       </c>
       <c r="BW8">
-        <v>0.4003129737140743</v>
+        <v>-0.06306306306306207</v>
       </c>
       <c r="BX8">
-        <v>3.131168102468644</v>
+        <v>2.63080684596577</v>
       </c>
       <c r="BY8">
-        <v>-1.386904187563994</v>
+        <v>-1.421052631578947</v>
       </c>
       <c r="BZ8">
-        <v>-0.04364339662083386</v>
+        <v>0.1644908616187988</v>
       </c>
       <c r="CA8">
-        <v>-0.6968837557720071</v>
+        <v>-0.3062787136294028</v>
       </c>
       <c r="CB8">
-        <v>-0.6516772746067075</v>
+        <v>-0.3927272727272726</v>
       </c>
       <c r="CC8">
-        <v>-0.4270581721958986</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD8">
-        <v>-0.5110796310384452</v>
+        <v>-0.4285714285714285</v>
       </c>
       <c r="CE8">
-        <v>-0.302661886374499</v>
+        <v>-0.007963065338594325</v>
       </c>
       <c r="CF8">
         <v>0</v>
       </c>
       <c r="CG8">
-        <v>-0.1700350788622686</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="CH8">
-        <v>0.08896527145338687</v>
+        <v>0.1364020244168483</v>
       </c>
       <c r="CI8">
-        <v>-0.9150167520687587</v>
+        <v>-0.4680851063829787</v>
       </c>
       <c r="CJ8">
-        <v>-0.4378009045699415</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK8">
-        <v>4.620134274394022</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="CL8">
         <v>2</v>
       </c>
       <c r="CM8">
-        <v>3.263545109424594</v>
+        <v>3.3600721045516</v>
       </c>
       <c r="CN8">
-        <v>3.797096904109924</v>
+        <v>4.13844714686623</v>
       </c>
       <c r="CO8">
-        <v>2.234914008100206</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="CP8">
-        <v>1.83156721663745</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ8">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR8">
         <v>2</v>
@@ -3249,28 +3249,28 @@
         <v>0</v>
       </c>
       <c r="CU8">
-        <v>0.5160156438590684</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV8">
-        <v>6.021420695533729</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="CW8">
-        <v>-2.54497810459244</v>
+        <v>-2.613333333333333</v>
       </c>
       <c r="CX8">
-        <v>1.354534971047119</v>
+        <v>0.8833037109954073</v>
       </c>
       <c r="CY8">
-        <v>3.358957317913906</v>
+        <v>1.855512471457809</v>
       </c>
       <c r="CZ8">
-        <v>0.5548326741216524</v>
+        <v>0.7718791461713446</v>
       </c>
       <c r="DA8">
-        <v>-0.3235866767846439</v>
+        <v>-0.1636509681669622</v>
       </c>
       <c r="DB8">
-        <v>0.7266402890305883</v>
+        <v>0.5677891813428595</v>
       </c>
       <c r="DC8">
         <v>0</v>
@@ -3284,28 +3284,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.669969446558959</v>
+        <v>-1.153846153846154</v>
       </c>
       <c r="D9">
-        <v>0.8553313286502933</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9">
-        <v>-0.5302921359530957</v>
+        <v>-0.9577464788732394</v>
       </c>
       <c r="F9">
-        <v>-1.335070463248714</v>
+        <v>-1.220748543600888</v>
       </c>
       <c r="G9">
-        <v>-0.347352680284957</v>
+        <v>-0.519594921403829</v>
       </c>
       <c r="H9">
-        <v>-0.7005474352058911</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I9">
-        <v>-1.743951095309044</v>
+        <v>-1.066666666666667</v>
       </c>
       <c r="J9">
-        <v>0.4001028456031233</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3329,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>-1.155901085104359</v>
+        <v>-0.7826086956521739</v>
       </c>
       <c r="S9">
-        <v>-0.9068108762114782</v>
+        <v>-0.6666666666666669</v>
       </c>
       <c r="T9">
-        <v>0.6792264378680715</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -3473,94 +3473,94 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>-0.2402569218322991</v>
+        <v>-0.3294286618842807</v>
       </c>
       <c r="BO9">
-        <v>-0.4796134891964103</v>
+        <v>-0.2612179405805858</v>
       </c>
       <c r="BP9">
-        <v>-0.5399915090309173</v>
+        <v>-0.3754939457944044</v>
       </c>
       <c r="BQ9">
-        <v>0.253882275400702</v>
+        <v>0.3679089179401698</v>
       </c>
       <c r="BR9">
-        <v>0.1772626897451164</v>
+        <v>0.2089150916086246</v>
       </c>
       <c r="BS9">
-        <v>0.447561551969291</v>
+        <v>0.6740925185118152</v>
       </c>
       <c r="BT9">
-        <v>0.3931135970854908</v>
+        <v>0.4320799004749008</v>
       </c>
       <c r="BU9">
-        <v>1.102518629204933</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV9">
-        <v>-0.1890771194063294</v>
+        <v>-0.08714133900106273</v>
       </c>
       <c r="BW9">
-        <v>0.9083060627867536</v>
+        <v>0.3693693693693703</v>
       </c>
       <c r="BX9">
-        <v>-2.037734333325712</v>
+        <v>-1.550122249388753</v>
       </c>
       <c r="BY9">
-        <v>1.733630234454993</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="BZ9">
-        <v>-0.7274424165651602</v>
+        <v>-0.8590078328981722</v>
       </c>
       <c r="CA9">
-        <v>-0.7990708292243923</v>
+        <v>-0.4492087799897908</v>
       </c>
       <c r="CB9">
-        <v>-0.5378807827170289</v>
+        <v>-0.2618181818181818</v>
       </c>
       <c r="CC9">
-        <v>-0.2135290860979512</v>
+        <v>-0.1250000000000019</v>
       </c>
       <c r="CD9">
-        <v>-0.06101860227013245</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="CE9">
-        <v>0.06152953953756927</v>
+        <v>0.3324401887841165</v>
       </c>
       <c r="CF9">
-        <v>-0.2390657338180147</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG9">
-        <v>-0.4958968036675604</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH9">
-        <v>-0.2986232947768898</v>
+        <v>-0.228385499023733</v>
       </c>
       <c r="CI9">
-        <v>0.446426861739739</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ9">
-        <v>0.6382393789028339</v>
+        <v>0.669691689427553</v>
       </c>
       <c r="CK9">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL9">
         <v>1</v>
       </c>
       <c r="CM9">
-        <v>-0.006642604214359576</v>
+        <v>0.1333934204596661</v>
       </c>
       <c r="CN9">
-        <v>-0.05944158826990887</v>
+        <v>0.471468662301216</v>
       </c>
       <c r="CO9">
-        <v>1.596367148643004</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP9">
-        <v>-0.4299379300452452</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ9">
-        <v>4.637197191879504</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="CR9">
         <v>1</v>
@@ -3575,25 +3575,25 @@
         <v>0</v>
       </c>
       <c r="CV9">
-        <v>-2.036656999959938</v>
+        <v>-1.444444444444444</v>
       </c>
       <c r="CW9">
-        <v>2.14009522431637</v>
+        <v>1.706666666666667</v>
       </c>
       <c r="CX9">
-        <v>-2.207939569675525</v>
+        <v>-0.9878466401488468</v>
       </c>
       <c r="CY9">
-        <v>-1.019974127380197</v>
+        <v>-0.2572055256390536</v>
       </c>
       <c r="CZ9">
-        <v>-0.9948033318774888</v>
+        <v>-0.4083076367602276</v>
       </c>
       <c r="DA9">
-        <v>0.1566817204594876</v>
+        <v>0.209016393442623</v>
       </c>
       <c r="DB9">
-        <v>-0.4958565971592122</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC9">
         <v>0</v>
@@ -3607,28 +3607,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.4202027126785634</v>
+        <v>-0.1538461538461539</v>
       </c>
       <c r="D10">
-        <v>0.5924290334373143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10">
-        <v>0.6060715004105407</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="F10">
-        <v>0.1756407101003384</v>
+        <v>0.1406233661057233</v>
       </c>
       <c r="G10">
-        <v>0.8455476336436852</v>
+        <v>0.546741794360653</v>
       </c>
       <c r="H10">
-        <v>-0.07148443216386645</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I10">
-        <v>-1.394210649922011</v>
+        <v>-0.8</v>
       </c>
       <c r="J10">
-        <v>0.1000257114007808</v>
+        <v>0.09833405058295749</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3652,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>0.5487804950301571</v>
+        <v>2.608695652173913</v>
       </c>
       <c r="S10">
-        <v>1.57674274374979</v>
+        <v>6.333333333333335</v>
       </c>
       <c r="T10">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -3796,94 +3796,94 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>-0.1138255856982054</v>
+        <v>0.1022370138143518</v>
       </c>
       <c r="BO10">
-        <v>-0.3382240991044447</v>
+        <v>-0.1362046115802355</v>
       </c>
       <c r="BP10">
-        <v>-0.4515226638446995</v>
+        <v>-0.285400770016301</v>
       </c>
       <c r="BQ10">
-        <v>-0.3834109453215491</v>
+        <v>-0.1293900184842882</v>
       </c>
       <c r="BR10">
-        <v>-0.170667822623694</v>
+        <v>-0.04035874439461878</v>
       </c>
       <c r="BS10">
-        <v>-0.7328745963325664</v>
+        <v>-0.4444444444444445</v>
       </c>
       <c r="BT10">
-        <v>0.2636954134974265</v>
+        <v>0.284945933871564</v>
       </c>
       <c r="BU10">
-        <v>1.154979734254303</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="BV10">
-        <v>-0.4194865456639245</v>
+        <v>-0.4229543039319873</v>
       </c>
       <c r="BW10">
-        <v>1.24696812216854</v>
+        <v>0.657657657657659</v>
       </c>
       <c r="BX10">
-        <v>0.9547881295025993</v>
+        <v>0.8704156479217602</v>
       </c>
       <c r="BY10">
-        <v>-0.3467260468909986</v>
+        <v>-0.4736842105263158</v>
       </c>
       <c r="BZ10">
-        <v>1.348376036837259</v>
+        <v>2.248041775456918</v>
       </c>
       <c r="CA10">
-        <v>0.1147735705069381</v>
+        <v>0.8289943848902501</v>
       </c>
       <c r="CB10">
-        <v>0.1828303325842702</v>
+        <v>0.5672727272727274</v>
       </c>
       <c r="CC10">
-        <v>2.135290860979482</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD10">
-        <v>1.803519945484306</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE10">
-        <v>0.7023096032774115</v>
+        <v>0.9313659277076489</v>
       </c>
       <c r="CF10">
-        <v>0.7171972014540432</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG10">
-        <v>0.9704809579562529</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="CH10">
-        <v>0.5007124413838835</v>
+        <v>0.5239269503027582</v>
       </c>
       <c r="CI10">
-        <v>1.807870475548237</v>
+        <v>1.404255319148936</v>
       </c>
       <c r="CJ10">
-        <v>0.01721041529854695</v>
+        <v>0.2367046238259407</v>
       </c>
       <c r="CK10">
-        <v>0.6403930227063174</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL10">
         <v>1</v>
       </c>
       <c r="CM10">
-        <v>0.4811451720658646</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN10">
-        <v>-0.2011103492144739</v>
+        <v>0.3367633302151544</v>
       </c>
       <c r="CO10">
-        <v>-0.319273429728601</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP10">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ10">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR10">
         <v>1</v>
@@ -3895,28 +3895,28 @@
         <v>0</v>
       </c>
       <c r="CU10">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV10">
-        <v>0.9740533478069269</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="CW10">
-        <v>0.11568082293602</v>
+        <v>-0.16</v>
       </c>
       <c r="CX10">
-        <v>-0.746123842732234</v>
+        <v>-0.2200440974187354</v>
       </c>
       <c r="CY10">
-        <v>-1.55190273812592</v>
+        <v>-0.5138469376211821</v>
       </c>
       <c r="CZ10">
-        <v>0.7516061792519306</v>
+        <v>0.9217398160879166</v>
       </c>
       <c r="DA10">
-        <v>5.25879329183415</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB10">
-        <v>-0.8744744867125339</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC10">
         <v>0</v>
@@ -3930,28 +3930,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.6124745178909319</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>0.9867824762567827</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E11">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F11">
-        <v>-0.9106006927572826</v>
+        <v>-0.8382391452056921</v>
       </c>
       <c r="G11">
-        <v>0.241197415099729</v>
+        <v>0.006511550735904605</v>
       </c>
       <c r="H11">
-        <v>0.07148443216386645</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I11">
-        <v>-0.9045740263801659</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="J11">
-        <v>-0.1000257114007808</v>
+        <v>-0.09833405058295749</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3975,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>-0.9373521645742923</v>
+        <v>-0.3478260869565217</v>
       </c>
       <c r="S11">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T11">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>6</v>
@@ -4119,94 +4119,94 @@
         <v>1</v>
       </c>
       <c r="BN11">
-        <v>-0.08569053111146203</v>
+        <v>0.19829656455835</v>
       </c>
       <c r="BO11">
-        <v>0.3604760940778828</v>
+        <v>0.4815704355155657</v>
       </c>
       <c r="BP11">
-        <v>0.2314637968522807</v>
+        <v>0.4101256509301721</v>
       </c>
       <c r="BQ11">
-        <v>-0.1560081828418481</v>
+        <v>0.04805914972273596</v>
       </c>
       <c r="BR11">
-        <v>0.1297683315201667</v>
+        <v>0.1748878923766819</v>
       </c>
       <c r="BS11">
-        <v>0.644929644772658</v>
+        <v>0.8611111111111113</v>
       </c>
       <c r="BT11">
-        <v>-0.8548009143857878</v>
+        <v>-0.9866590044000407</v>
       </c>
       <c r="BU11">
-        <v>0.3156020534643948</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>-0.08991356886508606</v>
+        <v>0.05738575982996803</v>
       </c>
       <c r="BW11">
-        <v>0.4426457311367982</v>
+        <v>-0.02702702702702551</v>
       </c>
       <c r="BX11">
-        <v>-0.01249185848230937</v>
+        <v>0.08801955990220034</v>
       </c>
       <c r="BY11">
-        <v>0.3082009305697765</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="BZ11">
-        <v>-0.5599814320889986</v>
+        <v>-0.6083550913838119</v>
       </c>
       <c r="CA11">
-        <v>-0.3713449360594086</v>
+        <v>0.149055640632976</v>
       </c>
       <c r="CB11">
-        <v>-0.2976437442832625</v>
+        <v>0.01454545454545463</v>
       </c>
       <c r="CC11">
-        <v>-2.56234903317538</v>
+        <v>-1.500000000000003</v>
       </c>
       <c r="CD11">
-        <v>-1.796968284662196</v>
+        <v>-1.380952380952381</v>
       </c>
       <c r="CE11">
-        <v>-1.937359022618114</v>
+        <v>-1.535885430036867</v>
       </c>
       <c r="CF11">
-        <v>-0.4781314676360295</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG11">
-        <v>-0.7402930972715293</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="CH11">
-        <v>-0.8265348466358647</v>
+        <v>-0.7252410937883507</v>
       </c>
       <c r="CI11">
-        <v>-2.523995568387892</v>
+        <v>-1.574468085106383</v>
       </c>
       <c r="CJ11">
-        <v>-1.006565054405551</v>
+        <v>-0.4770809843192922</v>
       </c>
       <c r="CK11">
-        <v>0.6403930227063174</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL11">
         <v>1</v>
       </c>
       <c r="CM11">
-        <v>-0.4944303804945833</v>
+        <v>-0.3479044614691305</v>
       </c>
       <c r="CN11">
-        <v>-0.9094541539373003</v>
+        <v>-0.3367633302151544</v>
       </c>
       <c r="CO11">
-        <v>0.9578202891858016</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP11">
-        <v>1.83156721663745</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ11">
-        <v>5.200185595108528</v>
+        <v>4.499999999999996</v>
       </c>
       <c r="CR11">
         <v>1</v>
@@ -4218,28 +4218,28 @@
         <v>0</v>
       </c>
       <c r="CU11">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV11">
-        <v>0.7969527391147583</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW11">
-        <v>0.34704246880806</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="CX11">
-        <v>-1.237751254810369</v>
+        <v>-0.478265958158136</v>
       </c>
       <c r="CY11">
-        <v>0.610129679743794</v>
+        <v>0.5292762207577916</v>
       </c>
       <c r="CZ11">
-        <v>0.9077891436618786</v>
+        <v>1.040687149269458</v>
       </c>
       <c r="DA11">
-        <v>-0.730642031083932</v>
+        <v>-0.4795081967213115</v>
       </c>
       <c r="DB11">
-        <v>-0.4958565971592122</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC11">
         <v>0</v>
@@ -4253,28 +4253,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-0.1317950048600105</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D12">
-        <v>0.5924290334373143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12">
-        <v>1.151526045865086</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="F12">
-        <v>0.8213232624243554</v>
+        <v>0.7224778627352311</v>
       </c>
       <c r="G12">
-        <v>1.399742769130603</v>
+        <v>1.042138277845125</v>
       </c>
       <c r="H12">
-        <v>0.3860159336848788</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="I12">
-        <v>-1.743951095309044</v>
+        <v>-1.066666666666667</v>
       </c>
       <c r="J12">
-        <v>-0.5258110158911862</v>
+        <v>-0.5169183633850821</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4298,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>-0.8499325963622659</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="S12">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T12">
-        <v>0.06792264378680715</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -4442,94 +4442,94 @@
         <v>2</v>
       </c>
       <c r="BN12">
-        <v>-0.2243031698182406</v>
+        <v>-0.274958881261438</v>
       </c>
       <c r="BO12">
-        <v>-0.003851400131471265</v>
+        <v>0.159440232762429</v>
       </c>
       <c r="BP12">
-        <v>0.08870781743323582</v>
+        <v>0.2647486029976088</v>
       </c>
       <c r="BQ12">
-        <v>-1.065619232760651</v>
+        <v>-0.6617375231053602</v>
       </c>
       <c r="BR12">
-        <v>-1.347376093020481</v>
+        <v>-0.883408071748879</v>
       </c>
       <c r="BS12">
-        <v>-0.7915045640391717</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="BT12">
-        <v>0.8500915465624127</v>
+        <v>0.9516126005382306</v>
       </c>
       <c r="BU12">
-        <v>0.4729853686125025</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="BV12">
-        <v>1.362540789062538</v>
+        <v>2.174282678002125</v>
       </c>
       <c r="BW12">
-        <v>0.2521483227345421</v>
+        <v>-0.1891891891891888</v>
       </c>
       <c r="BX12">
-        <v>1.293336125297317</v>
+        <v>1.144254278728606</v>
       </c>
       <c r="BY12">
-        <v>-0.577876744818331</v>
+        <v>-0.6842105263157895</v>
       </c>
       <c r="BZ12">
-        <v>-0.2808797912953961</v>
+        <v>-0.1906005221932116</v>
       </c>
       <c r="CA12">
-        <v>-0.7129417244573819</v>
+        <v>-0.3287391526288924</v>
       </c>
       <c r="CB12">
-        <v>-0.171203197739175</v>
+        <v>0.16</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12">
-        <v>0.1961591284546177</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="CE12">
-        <v>-0.9686031490311234</v>
+        <v>-0.6304065297754381</v>
       </c>
       <c r="CF12">
         <v>0</v>
       </c>
       <c r="CG12">
-        <v>-0.08856964766094561</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH12">
-        <v>-0.6983337661296131</v>
+        <v>-0.6045818206959211</v>
       </c>
       <c r="CI12">
-        <v>0.3226592604844211</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ12">
-        <v>0.185366772641248</v>
+        <v>0.3539447720237077</v>
       </c>
       <c r="CK12">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL12">
         <v>1</v>
       </c>
       <c r="CM12">
-        <v>-0.6387571008171964</v>
+        <v>-0.4903109508787746</v>
       </c>
       <c r="CN12">
-        <v>-1.515481631311274</v>
+        <v>-0.9130028063610856</v>
       </c>
       <c r="CO12">
-        <v>0</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP12">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ12">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR12">
         <v>1</v>
@@ -4544,25 +4544,25 @@
         <v>0</v>
       </c>
       <c r="CV12">
-        <v>1.85955639126777</v>
+        <v>1</v>
       </c>
       <c r="CW12">
-        <v>-0.5784041146801</v>
+        <v>-0.8</v>
       </c>
       <c r="CX12">
-        <v>-2.19813968770719</v>
+        <v>-0.9826993605327792</v>
       </c>
       <c r="CY12">
-        <v>-0.9856561524933758</v>
+        <v>-0.2406480151885937</v>
       </c>
       <c r="CZ12">
-        <v>1.289118978844609</v>
+        <v>1.331104014699714</v>
       </c>
       <c r="DA12">
-        <v>-0.3714871792687384</v>
+        <v>-0.2008196721311475</v>
       </c>
       <c r="DB12">
-        <v>-0.4958565971592122</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -4576,28 +4576,28 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>-0.2279309074661948</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-0.1962778522016225</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E13">
-        <v>1.742435136774177</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F13">
-        <v>2.500283549805461</v>
+        <v>2.235466853004296</v>
       </c>
       <c r="G13">
-        <v>1.613456841249779</v>
+        <v>1.233177846797613</v>
       </c>
       <c r="H13">
-        <v>-0.2716408422226925</v>
+        <v>-0.1025641025641026</v>
       </c>
       <c r="I13">
-        <v>-1.254314471767199</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J13">
-        <v>-2.900745630622644</v>
+        <v>-2.851687466905767</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4621,13 +4621,13 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>-0.95192209260963</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S13">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T13">
-        <v>0.8829943692284929</v>
+        <v>1.191489361702128</v>
       </c>
       <c r="U13">
         <v>9</v>
@@ -4765,94 +4765,94 @@
         <v>1</v>
       </c>
       <c r="BN13">
-        <v>-0.1837108900977527</v>
+        <v>-0.1363674972780554</v>
       </c>
       <c r="BO13">
-        <v>-0.3715557002455401</v>
+        <v>-0.1656756660691889</v>
       </c>
       <c r="BP13">
-        <v>-0.3300928830962833</v>
+        <v>-0.1617414800296843</v>
       </c>
       <c r="BQ13">
-        <v>0.9525802842466928</v>
+        <v>0.9131238447319781</v>
       </c>
       <c r="BR13">
-        <v>1.619430929150141</v>
+        <v>1.242152466367713</v>
       </c>
       <c r="BS13">
-        <v>0.469039741652842</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="BT13">
-        <v>-0.7570682255416233</v>
+        <v>-0.8755478932889297</v>
       </c>
       <c r="BU13">
-        <v>0.2106798433656563</v>
+        <v>-0.1081081081081081</v>
       </c>
       <c r="BV13">
-        <v>-0.1394953441357077</v>
+        <v>-0.01487778958554735</v>
       </c>
       <c r="BW13">
-        <v>0.2098155653118196</v>
+        <v>-0.2252252252252241</v>
       </c>
       <c r="BX13">
-        <v>-0.4900863525498583</v>
+        <v>-0.2982885085574576</v>
       </c>
       <c r="BY13">
-        <v>-0.2696758142485544</v>
+        <v>-0.4035087719298245</v>
       </c>
       <c r="BZ13">
-        <v>-0.3715878245533168</v>
+        <v>-0.3263707571801566</v>
       </c>
       <c r="CA13">
-        <v>-0.5436031455934294</v>
+        <v>-0.09188361408882084</v>
       </c>
       <c r="CB13">
-        <v>-0.5884570013346638</v>
+        <v>-0.32</v>
       </c>
       <c r="CC13">
-        <v>0.2135290860979474</v>
+        <v>0.1249999999999997</v>
       </c>
       <c r="CD13">
-        <v>0.1961591284546177</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="CE13">
-        <v>-1.093248875981504</v>
+        <v>-0.7469106758028761</v>
       </c>
       <c r="CF13">
         <v>0</v>
       </c>
       <c r="CG13">
-        <v>-0.2515005100635915</v>
+        <v>-0.2816901408450704</v>
       </c>
       <c r="CH13">
-        <v>-0.9171778707300239</v>
+        <v>-0.8105517741267078</v>
       </c>
       <c r="CI13">
-        <v>0.5701944629950569</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ13">
-        <v>0.4623301847351102</v>
+        <v>0.5470461925847369</v>
       </c>
       <c r="CK13">
-        <v>1.303683231320935</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="CL13">
         <v>1</v>
       </c>
       <c r="CM13">
-        <v>0.897683048439988</v>
+        <v>1.025687246507435</v>
       </c>
       <c r="CN13">
-        <v>-0.169628402337904</v>
+        <v>0.3666978484565014</v>
       </c>
       <c r="CO13">
-        <v>1.915640578371603</v>
+        <v>1.25</v>
       </c>
       <c r="CP13">
-        <v>1.185422889013822</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ13">
-        <v>1.822255175734383</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR13">
         <v>1</v>
@@ -4867,25 +4867,25 @@
         <v>0</v>
       </c>
       <c r="CV13">
-        <v>3.010710347766865</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="CW13">
-        <v>-2.14009522431637</v>
+        <v>-2.24</v>
       </c>
       <c r="CX13">
-        <v>-2.191606433061633</v>
+        <v>-0.9792678407887339</v>
       </c>
       <c r="CY13">
-        <v>-4.77779237748708</v>
+        <v>-2.070252919964413</v>
       </c>
       <c r="CZ13">
-        <v>0.7739180313104945</v>
+        <v>0.9387322922567081</v>
       </c>
       <c r="DA13">
-        <v>2.184850295415875</v>
+        <v>1.782786885245902</v>
       </c>
       <c r="DB13">
-        <v>-0.8744744867125339</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC13">
         <v>0</v>
@@ -4899,28 +4899,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-1.573833543952775</v>
+        <v>-1.076923076923077</v>
       </c>
       <c r="D14">
-        <v>1.052508050060027</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E14">
-        <v>0.833344227683268</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="F14">
-        <v>0.04091062354174026</v>
+        <v>0.01921183591454695</v>
       </c>
       <c r="G14">
-        <v>1.263203496755792</v>
+        <v>0.9200854645655924</v>
       </c>
       <c r="H14">
-        <v>0.100078205029413</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I14">
-        <v>0.4244396660905576</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="J14">
-        <v>1.000257114007808</v>
+        <v>0.9833405058295749</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4944,13 +4944,13 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>-1.08305144492767</v>
+        <v>-0.6376811594202898</v>
       </c>
       <c r="S14">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T14">
-        <v>-0.4075358627208429</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -5088,94 +5088,94 @@
         <v>1</v>
       </c>
       <c r="BN14">
-        <v>0.2236141365157903</v>
+        <v>1.254333876435295</v>
       </c>
       <c r="BO14">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP14">
-        <v>1.879012299292322</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ14">
-        <v>-0.2412842187717358</v>
+        <v>-0.01848428835489794</v>
       </c>
       <c r="BR14">
-        <v>-0.09555878408772883</v>
+        <v>0.01345291479820639</v>
       </c>
       <c r="BS14">
-        <v>-0.4104097739462373</v>
+        <v>-0.138888888888889</v>
       </c>
       <c r="BT14">
-        <v>-0.04036184068441818</v>
+        <v>-0.06073307847411505</v>
       </c>
       <c r="BU14">
-        <v>1.259901944353041</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV14">
-        <v>-0.3436555952500323</v>
+        <v>-0.3124335812964928</v>
       </c>
       <c r="BW14">
-        <v>1.141136228611732</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX14">
-        <v>-1.342501841961559</v>
+        <v>-0.9877750611246944</v>
       </c>
       <c r="BY14">
-        <v>1.30985395492155</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="BZ14">
-        <v>0.02613201357756679</v>
+        <v>0.2689295039164489</v>
       </c>
       <c r="CA14">
-        <v>0.6505257984644434</v>
+        <v>1.578356304236856</v>
       </c>
       <c r="CB14">
-        <v>-0.6137451106434814</v>
+        <v>-0.3490909090909091</v>
       </c>
       <c r="CC14">
-        <v>6.832930755134341</v>
+        <v>4.000000000000004</v>
       </c>
       <c r="CD14">
-        <v>6.497013531210997</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="CE14">
-        <v>4.060863341028213</v>
+        <v>4.070546424923418</v>
       </c>
       <c r="CF14">
-        <v>2.868788805816174</v>
+        <v>2.086956521739129</v>
       </c>
       <c r="CG14">
-        <v>4.229098206009171</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CH14">
-        <v>3.137723221683779</v>
+        <v>3.005807778696944</v>
       </c>
       <c r="CI14">
-        <v>5.892201316973729</v>
+        <v>4.212765957446808</v>
       </c>
       <c r="CJ14">
-        <v>-0.4004173454258167</v>
+        <v>-0.05446926536006481</v>
       </c>
       <c r="CK14">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL14">
         <v>1</v>
       </c>
       <c r="CM14">
-        <v>1.770951052417318</v>
+        <v>1.887336638125282</v>
       </c>
       <c r="CN14">
-        <v>0.8495996277910515</v>
+        <v>1.335827876520112</v>
       </c>
       <c r="CO14">
-        <v>2.554187437828805</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CP14">
-        <v>2.477711544261077</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ14">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR14">
         <v>2</v>
@@ -5190,25 +5190,25 @@
         <v>0</v>
       </c>
       <c r="CV14">
-        <v>-1.062603652153011</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="CW14">
-        <v>1.21464864082821</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="CX14">
-        <v>2.522136793707459</v>
+        <v>1.496573654539872</v>
       </c>
       <c r="CY14">
-        <v>-2.015195399098001</v>
+        <v>-0.7373733287023906</v>
       </c>
       <c r="CZ14">
-        <v>-0.3852841006412631</v>
+        <v>0.05589591675994336</v>
       </c>
       <c r="DA14">
-        <v>1.878512333573504</v>
+        <v>1.545081967213115</v>
       </c>
       <c r="DB14">
-        <v>-1.505504302634737</v>
+        <v>-0.9340701555906147</v>
       </c>
       <c r="DC14">
         <v>0</v>
@@ -5222,25 +5222,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.3240668100723791</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D15">
-        <v>1.118233623863272</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.9697078640469043</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="F15">
-        <v>0.1346498360318793</v>
+        <v>0.1036845882006049</v>
       </c>
       <c r="G15">
-        <v>1.430273472218969</v>
+        <v>1.069429753319727</v>
       </c>
       <c r="H15">
-        <v>0.100078205029413</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I15">
-        <v>-0.7646778482253529</v>
+        <v>-0.32</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>-0.8645025243976037</v>
+        <v>-0.2028985507246377</v>
       </c>
       <c r="S15">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U15">
         <v>6</v>
@@ -5411,94 +5411,94 @@
         <v>1</v>
       </c>
       <c r="BN15">
-        <v>-0.0700398415825019</v>
+        <v>0.2517316201169085</v>
       </c>
       <c r="BO15">
-        <v>-0.3929651091108061</v>
+        <v>-0.184605385423913</v>
       </c>
       <c r="BP15">
-        <v>-0.4791271359557469</v>
+        <v>-0.313512073525774</v>
       </c>
       <c r="BQ15">
-        <v>0.7062272915603506</v>
+        <v>0.7208872458410355</v>
       </c>
       <c r="BR15">
-        <v>0.3801317933067168</v>
+        <v>0.3542600896860987</v>
       </c>
       <c r="BS15">
-        <v>0.5862996770660527</v>
+        <v>0.8055555555555557</v>
       </c>
       <c r="BT15">
-        <v>0.8935282971598191</v>
+        <v>1.000995316587613</v>
       </c>
       <c r="BU15">
-        <v>-0.1565478919799283</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="BV15">
-        <v>-0.740309797415006</v>
+        <v>-0.8905419766206163</v>
       </c>
       <c r="BW15">
-        <v>-0.1288464940699671</v>
+        <v>-0.5135135135135127</v>
       </c>
       <c r="BX15">
-        <v>-0.5565868517238205</v>
+        <v>-0.352078239608802</v>
       </c>
       <c r="BY15">
-        <v>0.7319772101032191</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="BZ15">
-        <v>0.6227117707738924</v>
+        <v>1.161879895561357</v>
       </c>
       <c r="CA15">
-        <v>-0.2589391552617848</v>
+        <v>0.3062787136294028</v>
       </c>
       <c r="CB15">
-        <v>-0.04476265119508745</v>
+        <v>0.3054545454545454</v>
       </c>
       <c r="CC15">
-        <v>1.708232688783583</v>
+        <v>1</v>
       </c>
       <c r="CD15">
-        <v>1.546342214759556</v>
+        <v>1.095238095238095</v>
       </c>
       <c r="CE15">
-        <v>0.05490418860723342</v>
+        <v>0.3262475910019387</v>
       </c>
       <c r="CF15">
-        <v>0.4781314676360284</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG15">
-        <v>0.644619233150961</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="CH15">
-        <v>-0.07903201510213051</v>
+        <v>-0.02171232530035884</v>
       </c>
       <c r="CI15">
-        <v>1.807870475548237</v>
+        <v>1.404255319148936</v>
       </c>
       <c r="CJ15">
-        <v>0.2647901040505168</v>
+        <v>0.4093194440963554</v>
       </c>
       <c r="CK15">
-        <v>-0.686187394522917</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL15">
         <v>1</v>
       </c>
       <c r="CM15">
-        <v>0.0847034213062816</v>
+        <v>0.2235241099594408</v>
       </c>
       <c r="CN15">
-        <v>-0.8346845301054462</v>
+        <v>-0.265668849391955</v>
       </c>
       <c r="CO15">
-        <v>-0.319273429728601</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP15">
-        <v>0.539278561390196</v>
+        <v>0.25</v>
       </c>
       <c r="CQ15">
-        <v>-0.9926868404107373</v>
+        <v>-1</v>
       </c>
       <c r="CR15">
         <v>1</v>
@@ -5510,28 +5510,28 @@
         <v>0</v>
       </c>
       <c r="CU15">
-        <v>-0.5160156438590684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CV15">
-        <v>1.328254565191264</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CW15">
-        <v>-0.17352123440403</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="CX15">
-        <v>-0.3782627087836856</v>
+        <v>-0.02682910539790148</v>
       </c>
       <c r="CY15">
-        <v>0.2187818598104619</v>
+        <v>0.3404613026374551</v>
       </c>
       <c r="CZ15">
-        <v>0.532504340820169</v>
+        <v>0.7548741180581063</v>
       </c>
       <c r="DA15">
-        <v>0.5565178423427812</v>
+        <v>0.5192718120241467</v>
       </c>
       <c r="DB15">
-        <v>-0.5134565815458919</v>
+        <v>-0.2665882468629714</v>
       </c>
       <c r="DC15">
         <v>0</v>
@@ -5545,28 +5545,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.2279309074661948</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3295267382243354</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3787987731378134</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F16">
-        <v>0.1344634606169026</v>
+        <v>0.103516636669508</v>
       </c>
       <c r="G16">
-        <v>0.5037388033534503</v>
+        <v>0.2411979854981874</v>
       </c>
       <c r="H16">
-        <v>-0.1858595236260528</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.07469922070352507</v>
+        <v>0.32</v>
       </c>
       <c r="J16">
-        <v>0.7001799798054656</v>
+        <v>0.6883383540807024</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5590,13 +5590,13 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>-0.9810619486803055</v>
+        <v>-0.4347826086956522</v>
       </c>
       <c r="S16">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T16">
-        <v>-0.2716905751472286</v>
+        <v>-0.2553191489361702</v>
       </c>
       <c r="U16">
         <v>6</v>
@@ -5734,94 +5734,94 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>-0.1012507542269599</v>
+        <v>0.1451703821533092</v>
       </c>
       <c r="BO16">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP16">
-        <v>1.879012299292322</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ16">
-        <v>-1.16984549889718</v>
+        <v>-0.7430683918669126</v>
       </c>
       <c r="BR16">
-        <v>-0.5587311883928472</v>
+        <v>-0.3183856502242153</v>
       </c>
       <c r="BS16">
-        <v>-1.495064176518435</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="BT16">
-        <v>-0.3552782825156142</v>
+        <v>-0.4187577698321395</v>
       </c>
       <c r="BU16">
-        <v>1.259901944353041</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV16">
-        <v>-0.15991136924714</v>
+        <v>-0.04463336875664167</v>
       </c>
       <c r="BW16">
-        <v>1.289300879591264</v>
+        <v>0.6936936936936956</v>
       </c>
       <c r="BX16">
-        <v>-0.7681793490955192</v>
+        <v>-0.5232273838630808</v>
       </c>
       <c r="BY16">
-        <v>0.8860776753881074</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="BZ16">
-        <v>-0.5425375795393985</v>
+        <v>-0.5822454308093994</v>
       </c>
       <c r="CA16">
-        <v>-0.5187862848978502</v>
+        <v>-0.05717202654415528</v>
       </c>
       <c r="CB16">
-        <v>0.2839827698195403</v>
+        <v>0.6836363636363639</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16">
-        <v>0.3890424264981804</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="CE16">
-        <v>-0.2147260184216044</v>
+        <v>0.07422902781765038</v>
       </c>
       <c r="CF16">
-        <v>-0.7171972014540442</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG16">
-        <v>0.4002229395469922</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="CH16">
-        <v>0.1511243871923579</v>
+        <v>0.1949044464831483</v>
       </c>
       <c r="CI16">
-        <v>-0.04864354328153284</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ16">
-        <v>-0.4378009045699415</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK16">
-        <v>-2.012767811752151</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL16">
         <v>1</v>
       </c>
       <c r="CM16">
-        <v>-1.073564182295448</v>
+        <v>-0.9193330328977017</v>
       </c>
       <c r="CN16">
-        <v>-1.621733202019698</v>
+        <v>-1.014031805425631</v>
       </c>
       <c r="CO16">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP16">
-        <v>0.539278561390196</v>
+        <v>0.25</v>
       </c>
       <c r="CQ16">
-        <v>1.822255175734383</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR16">
         <v>1</v>
@@ -5833,28 +5833,28 @@
         <v>0</v>
       </c>
       <c r="CU16">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV16">
-        <v>-0.4427515217304213</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW16">
-        <v>0.40488288027607</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX16">
-        <v>6.010894774434688</v>
+        <v>3.329005197860003</v>
       </c>
       <c r="CY16">
-        <v>5.037148440143684</v>
+        <v>2.665195068867118</v>
       </c>
       <c r="CZ16">
-        <v>1.251594500382479</v>
+        <v>1.302525759324929</v>
       </c>
       <c r="DA16">
-        <v>0.5369633282638103</v>
+        <v>0.5040983606557377</v>
       </c>
       <c r="DB16">
-        <v>7.707531009829432</v>
+        <v>5.264759058783465</v>
       </c>
       <c r="DC16">
         <v>0</v>
@@ -5868,28 +5868,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.1317950048600105</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D17">
-        <v>-0.4591801474146</v>
+        <v>-0.9999999999999981</v>
       </c>
       <c r="E17">
-        <v>0.3787987731378134</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F17">
-        <v>0.9235563332089899</v>
+        <v>0.8146048247015685</v>
       </c>
       <c r="G17">
-        <v>0.1946997292064921</v>
+        <v>-0.03505285249805136</v>
       </c>
       <c r="H17">
-        <v>0.5575785708781583</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I17">
-        <v>0.6342839333227771</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="J17">
-        <v>1.100282825408589</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5913,13 +5913,13 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>-0.9956318767156432</v>
+        <v>-0.463768115942029</v>
       </c>
       <c r="S17">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T17">
-        <v>-0.7471490816548787</v>
+        <v>-0.851063829787234</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -6057,94 +6057,94 @@
         <v>1</v>
       </c>
       <c r="BN17">
-        <v>-0.2464900577198445</v>
+        <v>-0.3507100221616488</v>
       </c>
       <c r="BO17">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP17">
-        <v>1.879012299292322</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ17">
-        <v>-1.103519693173934</v>
+        <v>-0.6913123844731974</v>
       </c>
       <c r="BR17">
-        <v>-1.14708532359124</v>
+        <v>-0.7399103139013452</v>
       </c>
       <c r="BS17">
-        <v>0.2638348546797233</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="BT17">
-        <v>-0.4964477219571851</v>
+        <v>-0.5792515969926334</v>
       </c>
       <c r="BU17">
-        <v>1.050057524155564</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV17">
-        <v>-0.1949102694381672</v>
+        <v>-0.09564293304994671</v>
       </c>
       <c r="BW17">
-        <v>1.098803471189008</v>
+        <v>0.5315315315315323</v>
       </c>
       <c r="BX17">
-        <v>0.5316031347592017</v>
+        <v>0.5281173594132027</v>
       </c>
       <c r="BY17">
-        <v>-0.1541004652848882</v>
+        <v>-0.2982456140350877</v>
       </c>
       <c r="BZ17">
-        <v>-0.1936605285473953</v>
+        <v>-0.06005221932114892</v>
       </c>
       <c r="CA17">
-        <v>-0.6735267104114621</v>
+        <v>-0.2736089841755999</v>
       </c>
       <c r="CB17">
-        <v>0.9920498304664304</v>
+        <v>1.498181818181818</v>
       </c>
       <c r="CC17">
-        <v>0.8541163443917897</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD17">
-        <v>0.003275830411055098</v>
+        <v>-0.04761904761904762</v>
       </c>
       <c r="CE17">
-        <v>-0.3176844613780741</v>
+        <v>-0.02200439924345718</v>
       </c>
       <c r="CF17">
-        <v>-0.2390657338180147</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG17">
-        <v>-0.4144313724662375</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH17">
-        <v>-0.4847941933440444</v>
+        <v>-0.4036043443202974</v>
       </c>
       <c r="CI17">
-        <v>0.446426861739739</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ17">
-        <v>0.5575363576423755</v>
+        <v>0.6134248059025907</v>
       </c>
       <c r="CK17">
-        <v>-2.012767811752151</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL17">
         <v>1</v>
       </c>
       <c r="CM17">
-        <v>-0.640401329276568</v>
+        <v>-0.4919333032897706</v>
       </c>
       <c r="CN17">
-        <v>-0.9712374746825688</v>
+        <v>-0.3955098222637978</v>
       </c>
       <c r="CO17">
-        <v>0.6385468594572006</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="CP17">
-        <v>-0.4299379300452452</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ17">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR17">
         <v>1</v>
@@ -6159,25 +6159,25 @@
         <v>0</v>
       </c>
       <c r="CV17">
-        <v>0.9740533478069269</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="CW17">
-        <v>-0.75192534908413</v>
+        <v>-0.96</v>
       </c>
       <c r="CX17">
-        <v>-0.2773628219135474</v>
+        <v>0.02616744421650696</v>
       </c>
       <c r="CY17">
-        <v>-0.8655432403895028</v>
+        <v>-0.182696728611984</v>
       </c>
       <c r="CZ17">
-        <v>-1.233134478866695</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA17">
-        <v>0.5686534622475038</v>
+        <v>0.5286885245901639</v>
       </c>
       <c r="DB17">
-        <v>-1.253092376265856</v>
+        <v>-0.764239218210503</v>
       </c>
       <c r="DC17">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3488845081709108</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D18">
-        <v>0.0008988692081117098</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E18">
-        <v>-0.1666557723167321</v>
+        <v>-0.5070422535211268</v>
       </c>
       <c r="F18">
-        <v>-0.2745223556427434</v>
+        <v>-0.2650394523743017</v>
       </c>
       <c r="G18">
-        <v>-0.2157413829139647</v>
+        <v>-0.4019472378904508</v>
       </c>
       <c r="H18">
-        <v>-0.1286719778949596</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="I18">
-        <v>0.77418011147759</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>-0.8062228122562527</v>
+        <v>-0.08695652173913043</v>
       </c>
       <c r="S18">
-        <v>-0.5689124245160676</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="T18">
-        <v>0.6792264378680715</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -6380,94 +6380,94 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>-0.1880985111506693</v>
+        <v>-0.1513478452236628</v>
       </c>
       <c r="BO18">
-        <v>-0.490433050972741</v>
+        <v>-0.2707843545463316</v>
       </c>
       <c r="BP18">
-        <v>-0.4415073228802219</v>
+        <v>-0.2752015425697233</v>
       </c>
       <c r="BQ18">
-        <v>0.7630779821802754</v>
+        <v>0.7652495378927913</v>
       </c>
       <c r="BR18">
-        <v>0.880858716879818</v>
+        <v>0.7130044843049332</v>
       </c>
       <c r="BS18">
-        <v>-0.6156146609193557</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BT18">
-        <v>1.045556924250742</v>
+        <v>1.173834822760453</v>
       </c>
       <c r="BU18">
-        <v>0.2631409484150256</v>
+        <v>-0.05405405405405406</v>
       </c>
       <c r="BV18">
-        <v>0.834640711181213</v>
+        <v>1.404888416578108</v>
       </c>
       <c r="BW18">
-        <v>0.4003129737140743</v>
+        <v>-0.06306306306306207</v>
       </c>
       <c r="BX18">
-        <v>2.042978115985621</v>
+        <v>1.750611246943765</v>
       </c>
       <c r="BY18">
-        <v>-0.9246027917093295</v>
+        <v>-1</v>
       </c>
       <c r="BZ18">
-        <v>-0.2459920861961958</v>
+        <v>-0.1383812010443865</v>
       </c>
       <c r="CA18">
-        <v>-0.6282724350254058</v>
+        <v>-0.2103113833588567</v>
       </c>
       <c r="CB18">
-        <v>-0.1079829244671312</v>
+        <v>0.2327272727272727</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
       <c r="CD18">
-        <v>-0.06101860227013245</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="CE18">
-        <v>-0.04980567346623373</v>
+        <v>0.2283771436148705</v>
       </c>
       <c r="CF18">
-        <v>-0.4781314676360295</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG18">
-        <v>-0.4958968036675604</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH18">
-        <v>-0.366687624441234</v>
+        <v>-0.2924457433554707</v>
       </c>
       <c r="CI18">
-        <v>0.446426861739739</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ18">
-        <v>0.6382393789028339</v>
+        <v>0.669691689427553</v>
       </c>
       <c r="CK18">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL18">
         <v>1</v>
       </c>
       <c r="CM18">
-        <v>-0.6389397928682375</v>
+        <v>-0.490491212257774</v>
       </c>
       <c r="CN18">
-        <v>-0.8508190278796888</v>
+        <v>-0.2810102899906457</v>
       </c>
       <c r="CO18">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP18">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ18">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR18">
         <v>1</v>
@@ -6479,28 +6479,28 @@
         <v>0</v>
       </c>
       <c r="CU18">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV18">
-        <v>1.85955639126777</v>
+        <v>1</v>
       </c>
       <c r="CW18">
-        <v>-0.75192534908413</v>
+        <v>-0.96</v>
       </c>
       <c r="CX18">
-        <v>-1.35208321110761</v>
+        <v>-0.5383175536789269</v>
       </c>
       <c r="CY18">
-        <v>-2.324057173079389</v>
+        <v>-0.8863909227565298</v>
       </c>
       <c r="CZ18">
-        <v>0.2587170837763802</v>
+        <v>0.5463605698137016</v>
       </c>
       <c r="DA18">
-        <v>-1.617965782627352</v>
+        <v>-1.168032786885246</v>
       </c>
       <c r="DB18">
-        <v>-1.126886413081416</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC18">
         <v>0</v>
@@ -6514,28 +6514,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-0.03565910225382627</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D19">
-        <v>0.3952523120275801</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E19">
-        <v>0.6515260458650861</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="F19">
-        <v>0.4101498200151843</v>
+        <v>0.3519504022992969</v>
       </c>
       <c r="G19">
-        <v>0.8152071158762421</v>
+        <v>0.5196203260426686</v>
       </c>
       <c r="H19">
-        <v>-1.901485895558847</v>
+        <v>-2.051282051282051</v>
       </c>
       <c r="I19">
-        <v>-3.003016698702361</v>
+        <v>-2.026666666666667</v>
       </c>
       <c r="J19">
-        <v>0.6429066284774383</v>
+        <v>0.6320336245499132</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6559,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <v>0.1845322941467136</v>
+        <v>1.884057971014493</v>
       </c>
       <c r="S19">
-        <v>1.9146411954452</v>
+        <v>7.285714285714287</v>
       </c>
       <c r="T19">
-        <v>0.47545850650765</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="U19">
         <v>9</v>
@@ -6703,94 +6703,94 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>0.524867293344907</v>
+        <v>2.282881477649167</v>
       </c>
       <c r="BO19">
-        <v>0.1248977927730013</v>
+        <v>0.2732773827821532</v>
       </c>
       <c r="BP19">
-        <v>0.1907432459196773</v>
+        <v>0.3686574510771037</v>
       </c>
       <c r="BQ19">
-        <v>-1.397248261376881</v>
+        <v>-0.9205175600739369</v>
       </c>
       <c r="BR19">
-        <v>-0.8090946501793972</v>
+        <v>-0.4977578475336321</v>
       </c>
       <c r="BS19">
-        <v>-1.788214015051461</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="BT19">
-        <v>-0.203249655424692</v>
+        <v>-0.2459182636593001</v>
       </c>
       <c r="BU19">
-        <v>-2.359914304053436</v>
+        <v>-2.756756756756757</v>
       </c>
       <c r="BV19">
-        <v>-0.7548926724946006</v>
+        <v>-0.9117959617428266</v>
       </c>
       <c r="BW19">
-        <v>-2.774643832990174</v>
+        <v>-2.765765765765766</v>
       </c>
       <c r="BX19">
-        <v>1.680248120491281</v>
+        <v>1.45721271393643</v>
       </c>
       <c r="BY19">
-        <v>-0.7319772101032191</v>
+        <v>-0.8245614035087719</v>
       </c>
       <c r="BZ19">
-        <v>0.3994304581390103</v>
+        <v>0.8276762402088771</v>
       </c>
       <c r="CA19">
-        <v>-0.6049153896648605</v>
+        <v>-0.1776416539050537</v>
       </c>
       <c r="CB19">
-        <v>-0.373508072209715</v>
+        <v>-0.07272727272727274</v>
       </c>
       <c r="CC19">
-        <v>0.8541163443917897</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD19">
-        <v>0.9033978879476807</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="CE19">
-        <v>-0.01462632235913963</v>
+        <v>0.2612586579580213</v>
       </c>
       <c r="CF19">
-        <v>0.7171972014540432</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG19">
-        <v>1.051946389157576</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="CH19">
-        <v>0.5922096305361338</v>
+        <v>0.610041546915481</v>
       </c>
       <c r="CI19">
-        <v>-0.04864354328153284</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ19">
-        <v>-0.9433690377571506</v>
+        <v>-0.4330201443103278</v>
       </c>
       <c r="CK19">
-        <v>0.6403930227063174</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL19">
         <v>1</v>
       </c>
       <c r="CM19">
-        <v>0.3313376902120128</v>
+        <v>0.4668769716088325</v>
       </c>
       <c r="CN19">
-        <v>-0.3309733800803253</v>
+        <v>0.2132834424695979</v>
       </c>
       <c r="CO19">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP19">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ19">
-        <v>-2.681652050097809</v>
+        <v>-2.499999999999998</v>
       </c>
       <c r="CR19">
         <v>1</v>
@@ -6802,28 +6802,28 @@
         <v>0</v>
       </c>
       <c r="CU19">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV19">
-        <v>4.250414608612044</v>
+        <v>2.5</v>
       </c>
       <c r="CW19">
-        <v>-1.7352123440403</v>
+        <v>-1.866666666666667</v>
       </c>
       <c r="CX19">
-        <v>-2.17853992377052</v>
+        <v>-0.9724048013006434</v>
       </c>
       <c r="CY19">
-        <v>0.07820106899807069</v>
+        <v>0.2726348087756632</v>
       </c>
       <c r="CZ19">
-        <v>-0.05770554541780046</v>
+        <v>0.3053763623290204</v>
       </c>
       <c r="DA19">
-        <v>-0.2764167773176577</v>
+        <v>-0.1270491803278689</v>
       </c>
       <c r="DB19">
-        <v>-1.000680449896975</v>
+        <v>-0.5944082808303913</v>
       </c>
       <c r="DC19">
         <v>0</v>
@@ -6837,28 +6837,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.1317950048600105</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D20">
-        <v>0.5924290334373143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E20">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F20">
-        <v>-0.6314624803046824</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G20">
-        <v>0.1009228408661981</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H20">
-        <v>-0.7577349809369843</v>
+        <v>-0.6837606837606838</v>
       </c>
       <c r="I20">
-        <v>-1.464158738999418</v>
+        <v>-0.8533333333333334</v>
       </c>
       <c r="J20">
-        <v>-1.100282825408589</v>
+        <v>-1.081674556412532</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>-0.6459536038675375</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="S20">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T20">
-        <v>-0.3396132189340357</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U20">
         <v>3</v>
@@ -7026,94 +7026,94 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>-0.146212561717672</v>
+        <v>-0.008339575144977346</v>
       </c>
       <c r="BO20">
-        <v>0.1744071972874813</v>
+        <v>0.3170524883339511</v>
       </c>
       <c r="BP20">
-        <v>0.1828819190395167</v>
+        <v>0.3606517864505039</v>
       </c>
       <c r="BQ20">
-        <v>-0.639239053111212</v>
+        <v>-0.3290203327171899</v>
       </c>
       <c r="BR20">
-        <v>-0.6463584000181396</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS20">
-        <v>0.732874596332566</v>
+        <v>0.9444444444444448</v>
       </c>
       <c r="BT20">
-        <v>-0.6701947243468107</v>
+        <v>-0.7767824611901644</v>
       </c>
       <c r="BU20">
-        <v>0.000835423168179402</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="BV20">
-        <v>-0.8540562230358439</v>
+        <v>-1.056323060573857</v>
       </c>
       <c r="BW20">
-        <v>-0.2346783876267754</v>
+        <v>-0.6036036036036029</v>
       </c>
       <c r="BX20">
-        <v>1.257063125747883</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="BY20">
-        <v>-0.5393516284971088</v>
+        <v>-0.6491228070175439</v>
       </c>
       <c r="BZ20">
-        <v>-0.5181161859699583</v>
+        <v>-0.5456919060052219</v>
       </c>
       <c r="CA20">
-        <v>-0.3742645667294768</v>
+        <v>0.1449719244512505</v>
       </c>
       <c r="CB20">
-        <v>2.547268552958707</v>
+        <v>3.287272727272728</v>
       </c>
       <c r="CC20">
-        <v>-0.8541163443917935</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD20">
-        <v>-0.7682573617631955</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="CE20">
-        <v>-0.9362422836006011</v>
+        <v>-0.600159403909722</v>
       </c>
       <c r="CF20">
-        <v>0.2390657338180147</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CG20">
-        <v>0.1558266459430233</v>
+        <v>0</v>
       </c>
       <c r="CH20">
-        <v>0.1292532524835813</v>
+        <v>0.1743199459060342</v>
       </c>
       <c r="CI20">
-        <v>-1.905157562111302</v>
+        <v>-1.148936170212766</v>
       </c>
       <c r="CJ20">
-        <v>-1.393324676293766</v>
+        <v>-0.746733325174158</v>
       </c>
       <c r="CK20">
-        <v>-1.349477603137534</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL20">
         <v>1</v>
       </c>
       <c r="CM20">
-        <v>-0.8634683235979734</v>
+        <v>-0.71203244704822</v>
       </c>
       <c r="CN20">
-        <v>-1.25182032622</v>
+        <v>-0.6623012160898039</v>
       </c>
       <c r="CO20">
-        <v>-0.9578202891858031</v>
+        <v>-1</v>
       </c>
       <c r="CP20">
-        <v>-2.691443076727939</v>
+        <v>-2.249999999999998</v>
       </c>
       <c r="CQ20">
-        <v>-2.118663646868784</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="CR20">
         <v>1</v>
@@ -7128,25 +7128,25 @@
         <v>0</v>
       </c>
       <c r="CV20">
-        <v>1.505355173883432</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CW20">
-        <v>-0.34704246880806</v>
+        <v>-0.5866666666666667</v>
       </c>
       <c r="CX20">
-        <v>-2.221006078966638</v>
+        <v>-0.9947096796369372</v>
       </c>
       <c r="CY20">
-        <v>-0.7625893157290402</v>
+        <v>-0.1330241972606044</v>
       </c>
       <c r="CZ20">
-        <v>-0.5323394892090713</v>
+        <v>-0.05609994889800137</v>
       </c>
       <c r="DA20">
-        <v>-1.5440221366654</v>
+        <v>-1.110655737704918</v>
       </c>
       <c r="DB20">
-        <v>-0.8744744867125339</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC20">
         <v>0</v>
@@ -7160,25 +7160,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.021835826414201</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.8553313286502933</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21">
-        <v>0.3787987731378134</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F21">
-        <v>-0.3062297872822152</v>
+        <v>-0.2936124897122245</v>
       </c>
       <c r="G21">
-        <v>0.7038064826424103</v>
+        <v>0.4200390081491153</v>
       </c>
       <c r="H21">
-        <v>0.1858595236260528</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I21">
-        <v>2.033245714870907</v>
+        <v>1.813333333333333</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7205,13 +7205,13 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>-0.3545550431607827</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="S21">
-        <v>-0.2225665115282718</v>
+        <v>1.261904761904762</v>
       </c>
       <c r="T21">
-        <v>-0.3396132189340357</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -7349,94 +7349,94 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>1.100686015031792</v>
+        <v>4.248859099789194</v>
       </c>
       <c r="BO21">
-        <v>0.2198907053918017</v>
+        <v>0.3572679865339013</v>
       </c>
       <c r="BP21">
-        <v>0.2780525719855466</v>
+        <v>0.4575698184055462</v>
       </c>
       <c r="BQ21">
-        <v>-1.728877289993112</v>
+        <v>-1.179297597042514</v>
       </c>
       <c r="BR21">
-        <v>-1.422485131556446</v>
+        <v>-0.937219730941704</v>
       </c>
       <c r="BS21">
-        <v>-1.348489257251922</v>
+        <v>-1.027777777777778</v>
       </c>
       <c r="BT21">
-        <v>-0.2249680307233952</v>
+        <v>-0.2706096216839915</v>
       </c>
       <c r="BU21">
-        <v>-0.523775627325513</v>
+        <v>-0.8648648648648649</v>
       </c>
       <c r="BV21">
-        <v>-0.2882406699475728</v>
+        <v>-0.2316684378320935</v>
       </c>
       <c r="BW21">
-        <v>-0.7003387192767324</v>
+        <v>-1</v>
       </c>
       <c r="BX21">
-        <v>-1.43922984076005</v>
+        <v>-1.06601466992665</v>
       </c>
       <c r="BY21">
-        <v>1.348379071242772</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="BZ21">
-        <v>1.390241282956299</v>
+        <v>2.310704960835508</v>
       </c>
       <c r="CA21">
-        <v>-0.066243531037287</v>
+        <v>0.5758039816232773</v>
       </c>
       <c r="CB21">
-        <v>-0.2217794163568098</v>
+        <v>0.101818181818182</v>
       </c>
       <c r="CC21">
-        <v>2.34881994707743</v>
+        <v>1.375000000000001</v>
       </c>
       <c r="CD21">
-        <v>2.060697676209057</v>
+        <v>1.476190476190476</v>
       </c>
       <c r="CE21">
-        <v>1.03463299002794</v>
+        <v>1.241982691920744</v>
       </c>
       <c r="CF21">
-        <v>1.195328669090072</v>
+        <v>0.8695652173913033</v>
       </c>
       <c r="CG21">
-        <v>1.622204407566837</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="CH21">
-        <v>1.185952618355907</v>
+        <v>1.16885584887893</v>
       </c>
       <c r="CI21">
-        <v>1.312800070526965</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="CJ21">
-        <v>-0.6589869628393459</v>
+        <v>-0.2347463642699855</v>
       </c>
       <c r="CK21">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL21">
         <v>1</v>
       </c>
       <c r="CM21">
-        <v>0.8282600690443006</v>
+        <v>0.9571879224876065</v>
       </c>
       <c r="CN21">
-        <v>0.2357016636979355</v>
+        <v>0.7521047708138446</v>
       </c>
       <c r="CO21">
-        <v>0</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP21">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ21">
-        <v>1.259266772505361</v>
+        <v>1</v>
       </c>
       <c r="CR21">
         <v>1</v>
@@ -7448,28 +7448,28 @@
         <v>0</v>
       </c>
       <c r="CU21">
-        <v>2.580078219295342</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="CV21">
-        <v>-0.08855030434608425</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="CW21">
-        <v>0.11568082293602</v>
+        <v>-0.16</v>
       </c>
       <c r="CX21">
-        <v>-2.087074358732728</v>
+        <v>-0.9243635248840109</v>
       </c>
       <c r="CY21">
-        <v>-1.94655944932436</v>
+        <v>-0.7042583078014708</v>
       </c>
       <c r="CZ21">
-        <v>-1.64590374195013</v>
+        <v>-0.9041789867767833</v>
       </c>
       <c r="DA21">
-        <v>-1.565148892654529</v>
+        <v>-1.127049180327869</v>
       </c>
       <c r="DB21">
-        <v>2.280674592898482</v>
+        <v>1.613393905111061</v>
       </c>
       <c r="DC21">
         <v>0</v>
@@ -7483,28 +7483,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1566127029585423</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D22">
-        <v>0.06662444301135645</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E22">
-        <v>-0.3939284995894594</v>
+        <v>-0.7887323943661971</v>
       </c>
       <c r="F22">
-        <v>-0.6251179049606063</v>
+        <v>-0.5809773635578173</v>
       </c>
       <c r="G22">
-        <v>-0.452736193198536</v>
+        <v>-0.6137975196795403</v>
       </c>
       <c r="H22">
-        <v>-0.04289065929831987</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="I22">
-        <v>-0.6947297591479464</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="J22">
-        <v>0.2000514228015616</v>
+        <v>0.196668101165915</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -7528,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>-0.733373172079564</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S22">
-        <v>-0.6702819600246906</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>-0.4075358627208429</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U22">
         <v>3</v>
@@ -7672,94 +7672,94 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>0.5167253161333093</v>
+        <v>2.255082893832575</v>
       </c>
       <c r="BO22">
-        <v>-0.01189141419031578</v>
+        <v>0.1523314325755691</v>
       </c>
       <c r="BP22">
-        <v>-0.09067142372158496</v>
+        <v>0.08207587261114177</v>
       </c>
       <c r="BQ22">
-        <v>1.293684427966244</v>
+        <v>1.179297597042514</v>
       </c>
       <c r="BR22">
-        <v>0.6179770820039401</v>
+        <v>0.5246636771300454</v>
       </c>
       <c r="BS22">
-        <v>3.10738828845008</v>
+        <v>3.194444444444444</v>
       </c>
       <c r="BT22">
-        <v>-0.148953717177934</v>
+        <v>-0.1841898685975717</v>
       </c>
       <c r="BU22">
-        <v>1.050057524155564</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV22">
-        <v>-0.585731321571303</v>
+        <v>-0.6652497343251857</v>
       </c>
       <c r="BW22">
-        <v>1.225801743457178</v>
+        <v>0.6396396396396408</v>
       </c>
       <c r="BX22">
-        <v>0.4106931362610882</v>
+        <v>0.4303178484107578</v>
       </c>
       <c r="BY22">
-        <v>-0.1541004652848882</v>
+        <v>-0.2982456140350877</v>
       </c>
       <c r="BZ22">
-        <v>1.746095874968143</v>
+        <v>2.843342036553524</v>
       </c>
       <c r="CA22">
-        <v>2.923458275112497</v>
+        <v>4.757529351710057</v>
       </c>
       <c r="CB22">
-        <v>2.673709099502795</v>
+        <v>3.432727272727274</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
       <c r="CD22">
-        <v>0.06757026309224265</v>
+        <v>0</v>
       </c>
       <c r="CE22">
-        <v>0.2767287104784928</v>
+        <v>0.5335830297758941</v>
       </c>
       <c r="CF22">
-        <v>0.4781314676360284</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG22">
-        <v>0.644619233150961</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="CH22">
-        <v>0.9779719525547955</v>
+        <v>0.9731102603570156</v>
       </c>
       <c r="CI22">
-        <v>-1.038784353324077</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ22">
-        <v>-1.212930807885729</v>
+        <v>-0.620961072490161</v>
       </c>
       <c r="CK22">
-        <v>-0.686187394522917</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL22">
         <v>1</v>
       </c>
       <c r="CM22">
-        <v>-0.4122189575260062</v>
+        <v>-0.2667868409193332</v>
       </c>
       <c r="CN22">
-        <v>-0.480512627744033</v>
+        <v>0.07109448082319948</v>
       </c>
       <c r="CO22">
-        <v>-0.9578202891858031</v>
+        <v>-1</v>
       </c>
       <c r="CP22">
-        <v>-0.4299379300452452</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ22">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR22">
         <v>1</v>
@@ -7771,28 +7771,28 @@
         <v>0</v>
       </c>
       <c r="CU22">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV22">
-        <v>0.8400996288642931</v>
+        <v>0.3604032508026312</v>
       </c>
       <c r="CW22">
-        <v>-0.01118292625565251</v>
+        <v>-0.2769781896744977</v>
       </c>
       <c r="CX22">
-        <v>-0.534442615176387</v>
+        <v>-0.1088608738632841</v>
       </c>
       <c r="CY22">
-        <v>-0.1860204359230243</v>
+        <v>0.1451549576657031</v>
       </c>
       <c r="CZ22">
-        <v>-0.2786151246451485</v>
+        <v>0.1371339075733353</v>
       </c>
       <c r="DA22">
-        <v>-0.3901049007441277</v>
+        <v>-0.2152662132344728</v>
       </c>
       <c r="DB22">
-        <v>0.808156431929752</v>
+        <v>0.6226358883084573</v>
       </c>
       <c r="DC22">
         <v>0</v>
@@ -7806,28 +7806,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-0.2279309074661948</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4609778858308248</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23">
-        <v>0.5606169549559952</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="F23">
-        <v>0.2387743995704312</v>
+        <v>0.1975160620207126</v>
       </c>
       <c r="G23">
-        <v>0.7465646717123462</v>
+        <v>0.4582606653760406</v>
       </c>
       <c r="H23">
-        <v>-0.5003910251470651</v>
+        <v>-0.3760683760683761</v>
       </c>
       <c r="I23">
-        <v>-1.394210649922011</v>
+        <v>-0.8</v>
       </c>
       <c r="J23">
-        <v>0.4001028456031233</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -7851,13 +7851,13 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>-0.95192209260963</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S23">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T23">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>6</v>
@@ -7995,94 +7995,94 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>0.08257699792822483</v>
+        <v>0.7728006301012332</v>
       </c>
       <c r="BO23">
-        <v>-0.2213912090950642</v>
+        <v>-0.03290358943632292</v>
       </c>
       <c r="BP23">
-        <v>-0.1556963986402075</v>
+        <v>0.01585700784604748</v>
       </c>
       <c r="BQ23">
-        <v>-1.359347800963598</v>
+        <v>-0.8909426987060995</v>
       </c>
       <c r="BR23">
-        <v>-1.134567150501913</v>
+        <v>-0.7309417040358746</v>
       </c>
       <c r="BS23">
-        <v>-0.762189580185869</v>
+        <v>-0.4722222222222224</v>
       </c>
       <c r="BT23">
-        <v>-0.3335599072169113</v>
+        <v>-0.3940664118074484</v>
       </c>
       <c r="BU23">
-        <v>1.889435204945472</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="BV23">
-        <v>0.1375792823765904</v>
+        <v>0.388947927736451</v>
       </c>
       <c r="BW23">
-        <v>2.178288785468453</v>
+        <v>1.450450450450452</v>
       </c>
       <c r="BX23">
-        <v>-1.118818344740048</v>
+        <v>-0.8068459657701711</v>
       </c>
       <c r="BY23">
-        <v>1.30985395492155</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="BZ23">
-        <v>0.04357586612716695</v>
+        <v>0.2950391644908615</v>
       </c>
       <c r="CA23">
-        <v>-0.3538271520389997</v>
+        <v>0.1735579377233283</v>
       </c>
       <c r="CB23">
-        <v>0.1701862779298615</v>
+        <v>0.552727272727273</v>
       </c>
       <c r="CC23">
-        <v>0.4270581721958949</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD23">
-        <v>0.5176312918605555</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE23">
-        <v>-0.2837546796127504</v>
+        <v>0.009709164840773176</v>
       </c>
       <c r="CF23">
-        <v>0.7171972014540432</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG23">
-        <v>0.88901552675493</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="CH23">
-        <v>0.4797558274109262</v>
+        <v>0.5042031710766356</v>
       </c>
       <c r="CI23">
-        <v>-0.5437139483028047</v>
+        <v>-0.2127659574468085</v>
       </c>
       <c r="CJ23">
-        <v>-1.101359079378154</v>
+        <v>-0.5431722443327404</v>
       </c>
       <c r="CK23">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL23">
         <v>1</v>
       </c>
       <c r="CM23">
-        <v>-0.2908566280192823</v>
+        <v>-0.1470392068499326</v>
       </c>
       <c r="CN23">
-        <v>-0.8646235617195208</v>
+        <v>-0.2941362911131902</v>
       </c>
       <c r="CO23">
-        <v>-0.9578202891858031</v>
+        <v>-1</v>
       </c>
       <c r="CP23">
-        <v>-0.4299379300452452</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ23">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR23">
         <v>1</v>
@@ -8097,25 +8097,25 @@
         <v>0</v>
       </c>
       <c r="CV23">
-        <v>-0.1771006086921685</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="CW23">
-        <v>0.63624452614811</v>
+        <v>0.32</v>
       </c>
       <c r="CX23">
-        <v>-2.214472824321081</v>
+        <v>-0.991278159892892</v>
       </c>
       <c r="CY23">
-        <v>-1.483266788352278</v>
+        <v>-0.4807319167202622</v>
       </c>
       <c r="CZ23">
-        <v>1.716086693238038</v>
+        <v>1.656278217747954</v>
       </c>
       <c r="DA23">
-        <v>-0.04402246143723827</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="DB23">
-        <v>2.280674592898482</v>
+        <v>1.613393905111061</v>
       </c>
       <c r="DC23">
         <v>0</v>
@@ -8129,28 +8129,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.5163386152847477</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D24">
-        <v>0.5267034596340696</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
-        <v>0.5151624095014498</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="F24">
-        <v>0.1253793746599764</v>
+        <v>0.09533054546604917</v>
       </c>
       <c r="G24">
-        <v>0.7243888796758627</v>
+        <v>0.4384376667787961</v>
       </c>
       <c r="H24">
-        <v>-0.7005474352058911</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I24">
-        <v>-1.324262560844605</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="J24">
-        <v>0.4001028456031233</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -8174,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>-0.791652884220915</v>
+        <v>-0.05797101449275362</v>
       </c>
       <c r="S24">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T24">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>6</v>
@@ -8318,94 +8318,94 @@
         <v>1</v>
       </c>
       <c r="BN24">
-        <v>-0.1805445656265758</v>
+        <v>-0.1255569369049366</v>
       </c>
       <c r="BO24">
-        <v>-0.08333268197033415</v>
+        <v>0.08916466520089976</v>
       </c>
       <c r="BP24">
-        <v>-0.2112541358312145</v>
+        <v>-0.04072079614864994</v>
       </c>
       <c r="BQ24">
-        <v>-1.359347800963598</v>
+        <v>-0.8909426987060995</v>
       </c>
       <c r="BR24">
-        <v>-1.547666862449721</v>
+        <v>-1.026905829596413</v>
       </c>
       <c r="BS24">
-        <v>-0.99670945101229</v>
+        <v>-0.6944444444444444</v>
       </c>
       <c r="BT24">
-        <v>0.6437669812247324</v>
+        <v>0.7170446993036628</v>
       </c>
       <c r="BU24">
-        <v>0.368063158513764</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="BV24">
-        <v>0.3359063834590771</v>
+        <v>0.6780021253985125</v>
       </c>
       <c r="BW24">
-        <v>0.6543095182504147</v>
+        <v>0.1531531531531548</v>
       </c>
       <c r="BX24">
-        <v>-0.000400858632497845</v>
+        <v>0.09779951100244498</v>
       </c>
       <c r="BY24">
-        <v>0.2696758142485544</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="BZ24">
-        <v>-0.09946372477955444</v>
+        <v>0.08093994778067867</v>
       </c>
       <c r="CA24">
-        <v>-0.4384964414709761</v>
+        <v>0.05513016845329242</v>
       </c>
       <c r="CB24">
-        <v>-0.8413380944228389</v>
+        <v>-0.6109090909090908</v>
       </c>
       <c r="CC24">
-        <v>-1.281174516587692</v>
+        <v>-0.7500000000000028</v>
       </c>
       <c r="CD24">
-        <v>-0.9611406598067581</v>
+        <v>-0.7619047619047619</v>
       </c>
       <c r="CE24">
-        <v>-1.498944783317763</v>
+        <v>-1.126107431178638</v>
       </c>
       <c r="CF24">
-        <v>-0.2390657338180147</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG24">
-        <v>-0.4144313724662375</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH24">
-        <v>-0.7188133373029512</v>
+        <v>-0.6238566205748438</v>
       </c>
       <c r="CI24">
-        <v>-1.41008715709003</v>
+        <v>-0.8085106382978723</v>
       </c>
       <c r="CJ24">
-        <v>-0.5198905756802353</v>
+        <v>-0.1377670927038609</v>
       </c>
       <c r="CK24">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL24">
         <v>1</v>
       </c>
       <c r="CM24">
-        <v>-0.9730835542227428</v>
+        <v>-0.8201892744479496</v>
       </c>
       <c r="CN24">
-        <v>-1.609927471940984</v>
+        <v>-1.002806361085126</v>
       </c>
       <c r="CO24">
-        <v>0.9578202891858016</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP24">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ24">
-        <v>1.259266772505361</v>
+        <v>1</v>
       </c>
       <c r="CR24">
         <v>1</v>
@@ -8417,28 +8417,28 @@
         <v>0</v>
       </c>
       <c r="CU24">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV24">
-        <v>1.948106695613854</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="CW24">
-        <v>-0.52056370321209</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="CX24">
-        <v>-2.152406905188294</v>
+        <v>-0.9586787223244627</v>
       </c>
       <c r="CY24">
-        <v>-1.637697675342972</v>
+        <v>-0.5552407137473317</v>
       </c>
       <c r="CZ24">
-        <v>-0.4694606334076635</v>
+        <v>-0.008212061513224907</v>
       </c>
       <c r="DA24">
-        <v>0.4947098162855522</v>
+        <v>0.4713114754098361</v>
       </c>
       <c r="DB24">
-        <v>-2.136534118556941</v>
+        <v>-1.358647499040894</v>
       </c>
       <c r="DC24">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.060476800352358</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D25">
-        <v>0.6581546072405591</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E25">
-        <v>1.106071500410541</v>
+        <v>1.070422535211268</v>
       </c>
       <c r="F25">
-        <v>0.70325177800465</v>
+        <v>0.616078171608296</v>
       </c>
       <c r="G25">
-        <v>1.381888259040559</v>
+        <v>1.026178084500637</v>
       </c>
       <c r="H25">
-        <v>-1.329610438247916</v>
+        <v>-1.367521367521368</v>
       </c>
       <c r="I25">
-        <v>-0.344989313760914</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.000257114007808</v>
+        <v>0.9833405058295749</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8497,13 +8497,13 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <v>-0.06315648245402795</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="S25">
-        <v>0.309623549892</v>
+        <v>2.761904761904762</v>
       </c>
       <c r="T25">
-        <v>-0.2037679313604215</v>
+        <v>-0.1702127659574468</v>
       </c>
       <c r="U25">
         <v>6</v>
@@ -8641,94 +8641,94 @@
         <v>1</v>
       </c>
       <c r="BN25">
-        <v>4.271081474814494</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO25">
-        <v>0.2559239930703261</v>
+        <v>0.3891278116918544</v>
       </c>
       <c r="BP25">
-        <v>0.1887832591796287</v>
+        <v>0.3666614780368514</v>
       </c>
       <c r="BQ25">
-        <v>0.3745982629441199</v>
+        <v>0.4621072088724584</v>
       </c>
       <c r="BR25">
-        <v>0.2048773700561319</v>
+        <v>0.2286995515695071</v>
       </c>
       <c r="BS25">
-        <v>1.260544305692013</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="BT25">
-        <v>-0.1706720924766372</v>
+        <v>-0.208881226622263</v>
       </c>
       <c r="BU25">
-        <v>-0.2090089970292975</v>
+        <v>-0.5405405405405406</v>
       </c>
       <c r="BV25">
-        <v>-0.4107368206161676</v>
+        <v>-0.4102019128586609</v>
       </c>
       <c r="BW25">
-        <v>-0.1076801153586052</v>
+        <v>-0.4954954954954945</v>
       </c>
       <c r="BX25">
-        <v>0.4106931362610882</v>
+        <v>0.4303178484107578</v>
       </c>
       <c r="BY25">
-        <v>-0.1155753489636662</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="BZ25">
-        <v>7.038560738516832</v>
+        <v>10.76501305483028</v>
       </c>
       <c r="CA25">
-        <v>9.238619414469902</v>
+        <v>13.59060745278203</v>
       </c>
       <c r="CB25">
-        <v>0.1701862779298615</v>
+        <v>0.552727272727273</v>
       </c>
       <c r="CC25">
-        <v>2.989407205371272</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CD25">
-        <v>2.703642003020932</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="CE25">
-        <v>-6.173023443505286</v>
+        <v>-5.494885696533812</v>
       </c>
       <c r="CF25">
-        <v>1.673460136726101</v>
+        <v>1.217391304347825</v>
       </c>
       <c r="CG25">
-        <v>2.436858719580066</v>
+        <v>1.577464788732394</v>
       </c>
       <c r="CH25">
-        <v>-4.027321798974403</v>
+        <v>-3.737732294859527</v>
       </c>
       <c r="CI25">
-        <v>1.312800070526965</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="CJ25">
-        <v>-1.161682549815263</v>
+        <v>-0.585230318886752</v>
       </c>
       <c r="CK25">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL25">
         <v>1</v>
       </c>
       <c r="CM25">
-        <v>1.343451652980718</v>
+        <v>1.465525011266336</v>
       </c>
       <c r="CN25">
-        <v>0.3734351812829295</v>
+        <v>0.883068288119738</v>
       </c>
       <c r="CO25">
-        <v>1.596367148643004</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP25">
-        <v>1.83156721663745</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ25">
-        <v>4.637197191879504</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="CR25">
         <v>1</v>
@@ -8740,28 +8740,28 @@
         <v>0</v>
       </c>
       <c r="CU25">
-        <v>0.5160156438590684</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV25">
-        <v>0.7578566038759741</v>
+        <v>0.3088048178267478</v>
       </c>
       <c r="CW25">
-        <v>-0.01522468257164882</v>
+        <v>-0.280705001627977</v>
       </c>
       <c r="CX25">
-        <v>12.41675095440294</v>
+        <v>6.693610306896312</v>
       </c>
       <c r="CY25">
-        <v>1.073422340715875</v>
+        <v>0.7528026118390002</v>
       </c>
       <c r="CZ25">
-        <v>17.5291047521985</v>
+        <v>13.69930950973882</v>
       </c>
       <c r="DA25">
-        <v>2.427807989290859</v>
+        <v>1.971311475409836</v>
       </c>
       <c r="DB25">
-        <v>8.843384678489398</v>
+        <v>6.028998276993968</v>
       </c>
       <c r="DC25">
         <v>0</v>
@@ -8775,28 +8775,28 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-0.8047463231033004</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="D26">
-        <v>0.7238801810438038</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>2.196980591319631</v>
+        <v>2.422535211267606</v>
       </c>
       <c r="F26">
-        <v>1.902575933605084</v>
+        <v>1.696844796539975</v>
       </c>
       <c r="G26">
-        <v>2.441050330290409</v>
+        <v>1.972965834768957</v>
       </c>
       <c r="H26">
-        <v>0.07148443216386645</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I26">
-        <v>0.2145953988583381</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="J26">
-        <v>-1.400359959610931</v>
+        <v>-1.376676708161405</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -8820,13 +8820,13 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>-0.95192209260963</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S26">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T26">
-        <v>-0.5433811502944572</v>
+        <v>-0.5957446808510638</v>
       </c>
       <c r="U26">
         <v>3</v>
@@ -8964,94 +8964,94 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>-0.2409399432539387</v>
+        <v>-0.3317606541933392</v>
       </c>
       <c r="BO26">
-        <v>-0.3702233550586459</v>
+        <v>-0.1644976363239379</v>
       </c>
       <c r="BP26">
-        <v>0.2185086294355436</v>
+        <v>0.3969326204022606</v>
       </c>
       <c r="BQ26">
-        <v>-0.809791124970988</v>
+        <v>-0.4621072088724584</v>
       </c>
       <c r="BR26">
-        <v>-0.6713947461967946</v>
+        <v>-0.3991031390134528</v>
       </c>
       <c r="BS26">
-        <v>-0.674244628625961</v>
+        <v>-0.388888888888889</v>
       </c>
       <c r="BT26">
-        <v>0.08994841110780107</v>
+        <v>0.08741506967403322</v>
       </c>
       <c r="BU26">
-        <v>0.4729853686125025</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="BV26">
-        <v>1.000885487088592</v>
+        <v>1.647183846971307</v>
       </c>
       <c r="BW26">
-        <v>0.3579802162913504</v>
+        <v>-0.09909909909909864</v>
       </c>
       <c r="BX26">
-        <v>0.9547881295025993</v>
+        <v>0.8704156479217602</v>
       </c>
       <c r="BY26">
-        <v>-0.2696758142485544</v>
+        <v>-0.4035087719298245</v>
       </c>
       <c r="BZ26">
-        <v>0.04008709561724687</v>
+        <v>0.2898172323759789</v>
       </c>
       <c r="CA26">
-        <v>-0.6866650484267687</v>
+        <v>-0.2919857069933641</v>
       </c>
       <c r="CB26">
-        <v>0.2081184418930876</v>
+        <v>0.5963636363636364</v>
       </c>
       <c r="CC26">
-        <v>0.8541163443917897</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD26">
-        <v>0.7105145899041181</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="CE26">
-        <v>-1.169568523663517</v>
+        <v>-0.8182452942920235</v>
       </c>
       <c r="CF26">
-        <v>-0.7171972014540442</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG26">
-        <v>-0.8217585284728522</v>
+        <v>-0.676056338028169</v>
       </c>
       <c r="CH26">
-        <v>-1.634420479496624</v>
+        <v>-1.48560046687525</v>
       </c>
       <c r="CI26">
-        <v>2.426708481824826</v>
+        <v>1.829787234042553</v>
       </c>
       <c r="CJ26">
-        <v>1.828007497214196</v>
+        <v>1.499208888277942</v>
       </c>
       <c r="CK26">
-        <v>1.966973439935553</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CL26">
         <v>1</v>
       </c>
       <c r="CM26">
-        <v>1.132625026079077</v>
+        <v>1.257503379900856</v>
       </c>
       <c r="CN26">
-        <v>-0.3309733800803253</v>
+        <v>0.2132834424695979</v>
       </c>
       <c r="CO26">
-        <v>3.512007727014607</v>
+        <v>2.5</v>
       </c>
       <c r="CP26">
-        <v>1.185422889013822</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ26">
-        <v>2.948231982192432</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CR26">
         <v>1</v>
@@ -9063,28 +9063,28 @@
         <v>0</v>
       </c>
       <c r="CU26">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV26">
-        <v>0.7969527391147583</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW26">
-        <v>0.40488288027607</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX26">
-        <v>-0.4406941880524626</v>
+        <v>-0.05962054938462281</v>
       </c>
       <c r="CY26">
-        <v>-3.473709331787888</v>
+        <v>-1.441067522846936</v>
       </c>
       <c r="CZ26">
-        <v>-1.420756871177347</v>
+        <v>-0.7327094545280678</v>
       </c>
       <c r="DA26">
-        <v>-0.8468391890241417</v>
+        <v>-0.569672131147541</v>
       </c>
       <c r="DB26">
-        <v>0.261379181947432</v>
+        <v>0.2547464060701675</v>
       </c>
       <c r="DC26">
         <v>0</v>
@@ -9098,28 +9098,28 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-0.3240668100723791</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D27">
-        <v>-0.1962778522016225</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E27">
-        <v>-1.348473954134914</v>
+        <v>-1.971830985915493</v>
       </c>
       <c r="F27">
-        <v>-1.713617731592128</v>
+        <v>-1.561875045284492</v>
       </c>
       <c r="G27">
-        <v>-1.739331772239879</v>
+        <v>-1.76388867838982</v>
       </c>
       <c r="H27">
-        <v>-0.7577349809369843</v>
+        <v>-0.6837606837606838</v>
       </c>
       <c r="I27">
-        <v>-0.2050931356061009</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J27">
-        <v>0.6001542684046849</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9143,13 +9143,13 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>-0.8790724524329414</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S27">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T27">
-        <v>-0.4075358627208429</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -9287,94 +9287,94 @@
         <v>2</v>
       </c>
       <c r="BN27">
-        <v>4.271081474814494</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO27">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP27">
-        <v>1.879012299292322</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ27">
-        <v>-1.075094347863972</v>
+        <v>-0.6691312384473193</v>
       </c>
       <c r="BR27">
-        <v>-0.6964310923754498</v>
+        <v>-0.4170403587443946</v>
       </c>
       <c r="BS27">
-        <v>-0.762189580185869</v>
+        <v>-0.4722222222222224</v>
       </c>
       <c r="BT27">
-        <v>-0.4421517837104271</v>
+        <v>-0.517523201930905</v>
       </c>
       <c r="BU27">
-        <v>-0.05162568188118984</v>
+        <v>-0.3783783783783784</v>
       </c>
       <c r="BV27">
-        <v>-0.5828147465553841</v>
+        <v>-0.6609989373007438</v>
       </c>
       <c r="BW27">
-        <v>0.1674828078890957</v>
+        <v>-0.2612612612612606</v>
       </c>
       <c r="BX27">
-        <v>0.2353736384388231</v>
+        <v>0.2885085574572123</v>
       </c>
       <c r="BY27">
-        <v>0.07705023264244412</v>
+        <v>-0.08771929824561403</v>
       </c>
       <c r="BZ27">
-        <v>1.278600626638859</v>
+        <v>2.143603133159269</v>
       </c>
       <c r="CA27">
-        <v>5.029971803566666</v>
+        <v>7.703930576824912</v>
       </c>
       <c r="CB27">
-        <v>-0.5378807827170289</v>
+        <v>-0.2618181818181818</v>
       </c>
       <c r="CC27">
-        <v>0.4270581721958949</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD27">
-        <v>0.3247479938169928</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="CE27">
-        <v>1.960503304275379</v>
+        <v>2.107377221943373</v>
       </c>
       <c r="CF27">
-        <v>0.7171972014540432</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG27">
-        <v>0.9704809579562529</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="CH27">
-        <v>2.472764898814212</v>
+        <v>2.37996759421979</v>
       </c>
       <c r="CI27">
-        <v>-1.038784353324077</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ27">
-        <v>-1.458659635044113</v>
+        <v>-0.792285455152657</v>
       </c>
       <c r="CK27">
-        <v>0.6403930227063174</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL27">
         <v>1</v>
       </c>
       <c r="CM27">
-        <v>0.4482606028784336</v>
+        <v>0.5822442541685442</v>
       </c>
       <c r="CN27">
-        <v>1.581554892671306</v>
+        <v>2.031805425631432</v>
       </c>
       <c r="CO27">
-        <v>-0.319273429728601</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP27">
-        <v>1.508495052825636</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="CQ27">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR27">
         <v>1</v>
@@ -9389,25 +9389,25 @@
         <v>0</v>
       </c>
       <c r="CV27">
-        <v>0.708402434768674</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="CW27">
-        <v>0.28920205734005</v>
+        <v>0</v>
       </c>
       <c r="CX27">
-        <v>-2.214472824321081</v>
+        <v>-0.991278159892892</v>
       </c>
       <c r="CY27">
-        <v>-0.9513381776065549</v>
+        <v>-0.2240905047381338</v>
       </c>
       <c r="CZ27">
-        <v>9.405562252694054</v>
+        <v>7.512503413737868</v>
       </c>
       <c r="DA27">
-        <v>0.2094986104323102</v>
+        <v>0.25</v>
       </c>
       <c r="DB27">
-        <v>-1.126886413081416</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC27">
         <v>0</v>
@@ -9421,28 +9421,28 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>-0.03565910225382627</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D28">
-        <v>0.1980755906178459</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E28">
-        <v>2.287889682228723</v>
+        <v>2.535211267605634</v>
       </c>
       <c r="F28">
-        <v>2.676696172552837</v>
+        <v>2.394440449918613</v>
       </c>
       <c r="G28">
-        <v>2.278894464633321</v>
+        <v>1.828014281644402</v>
       </c>
       <c r="H28">
-        <v>-0.07148443216386645</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I28">
-        <v>-1.114418293612385</v>
+        <v>-0.5866666666666667</v>
       </c>
       <c r="J28">
-        <v>0.3000771342023424</v>
+        <v>0.2950021517488725</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9466,13 +9466,13 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>-0.8499325963622659</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="S28">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T28">
-        <v>0.47545850650765</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -9610,94 +9610,94 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>-0.1895912069727955</v>
+        <v>-0.1564442522567045</v>
       </c>
       <c r="BO28">
-        <v>-0.4692533567948707</v>
+        <v>-0.252057743768375</v>
       </c>
       <c r="BP28">
-        <v>-0.5382973717533439</v>
+        <v>-0.3737687033407545</v>
       </c>
       <c r="BQ28">
-        <v>0.5167249894939332</v>
+        <v>0.5730129390018487</v>
       </c>
       <c r="BR28">
-        <v>0.905895063058473</v>
+        <v>0.730941704035875</v>
       </c>
       <c r="BS28">
-        <v>-0.5569846932127503</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="BT28">
-        <v>0.3397097270428878</v>
+        <v>0.3713656869579838</v>
       </c>
       <c r="BU28">
-        <v>-0.2614701020786668</v>
+        <v>-0.5945945945945946</v>
       </c>
       <c r="BV28">
-        <v>-0.7373932223990872</v>
+        <v>-0.8862911795961742</v>
       </c>
       <c r="BW28">
-        <v>0.1039836717550114</v>
+        <v>-0.3153153153153142</v>
       </c>
       <c r="BX28">
-        <v>-1.463411840459672</v>
+        <v>-1.085574572127139</v>
       </c>
       <c r="BY28">
-        <v>0.5393516284971088</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BZ28">
-        <v>-0.5390488090294785</v>
+        <v>-0.5770234986945169</v>
       </c>
       <c r="CA28">
-        <v>-0.7596558151784724</v>
+        <v>-0.3940786115364984</v>
       </c>
       <c r="CB28">
-        <v>-1.043642968893379</v>
+        <v>-0.8436363636363637</v>
       </c>
       <c r="CC28">
-        <v>1.281174516587688</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD28">
-        <v>0.9033978879476807</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="CE28">
-        <v>-0.9473563848774605</v>
+        <v>-0.6105475568757552</v>
       </c>
       <c r="CF28">
-        <v>0.4781314676360284</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG28">
-        <v>0.807550095553607</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="CH28">
-        <v>-0.3023042176952389</v>
+        <v>-0.2318498807737418</v>
       </c>
       <c r="CI28">
-        <v>0.3226592604844211</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ28">
-        <v>-0.5641929378667443</v>
+        <v>-0.168655104256538</v>
       </c>
       <c r="CK28">
-        <v>1.966973439935553</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CL28">
         <v>1</v>
       </c>
       <c r="CM28">
-        <v>1.580951319334385</v>
+        <v>1.699864803965751</v>
       </c>
       <c r="CN28">
-        <v>0.1255148496299404</v>
+        <v>0.6473339569691301</v>
       </c>
       <c r="CO28">
-        <v>1.915640578371603</v>
+        <v>1.25</v>
       </c>
       <c r="CP28">
-        <v>1.185422889013822</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ28">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR28">
         <v>1</v>
@@ -9709,28 +9709,28 @@
         <v>0</v>
       </c>
       <c r="CU28">
-        <v>1.548046931577205</v>
+        <v>1</v>
       </c>
       <c r="CV28">
-        <v>-0.9740533478069269</v>
+        <v>-0.7777777777777778</v>
       </c>
       <c r="CW28">
-        <v>0.23136164587204</v>
+        <v>-0.05333333333333334</v>
       </c>
       <c r="CX28">
-        <v>1.291115668371436</v>
+        <v>0.8499934236896469</v>
       </c>
       <c r="CY28">
-        <v>0.4055996631004902</v>
+        <v>0.4305959256887268</v>
       </c>
       <c r="CZ28">
-        <v>-0.532128468165581</v>
+        <v>-0.05593923744996931</v>
       </c>
       <c r="DA28">
-        <v>0.7672233308222227</v>
+        <v>0.6827700953150567</v>
       </c>
       <c r="DB28">
-        <v>-0.2444575918247219</v>
+        <v>-0.08559699484152319</v>
       </c>
       <c r="DC28">
         <v>0</v>
@@ -9744,28 +9744,28 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-0.3240668100723791</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D29">
-        <v>0.5267034596340696</v>
+        <v>0.25</v>
       </c>
       <c r="E29">
-        <v>0.833344227683268</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="F29">
-        <v>0.5063443792464285</v>
+        <v>0.4386357814202514</v>
       </c>
       <c r="G29">
-        <v>1.054088795498348</v>
+        <v>0.7331572852757748</v>
       </c>
       <c r="H29">
-        <v>-0.7005474352058911</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I29">
-        <v>-0.2050931356061009</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J29">
-        <v>0.2000514228015616</v>
+        <v>0.196668101165915</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -9789,13 +9789,13 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>-0.6896633879735508</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S29">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T29">
-        <v>0.4075358627208429</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U29">
         <v>9</v>
@@ -9933,94 +9933,94 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>-0.2088469830782242</v>
+        <v>-0.2221879029829425</v>
       </c>
       <c r="BO29">
-        <v>0.1463820054252233</v>
+        <v>0.2922732419683252</v>
       </c>
       <c r="BP29">
-        <v>-0.2556006704500452</v>
+        <v>-0.08588155449419317</v>
       </c>
       <c r="BQ29">
-        <v>1.397910694102773</v>
+        <v>1.260628465804067</v>
       </c>
       <c r="BR29">
-        <v>0.9184132361478002</v>
+        <v>0.7399103139013457</v>
       </c>
       <c r="BS29">
-        <v>0.08794495155990735</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="BT29">
-        <v>2.022883812692385</v>
+        <v>2.284945933871564</v>
       </c>
       <c r="BU29">
-        <v>1.102518629204933</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV29">
-        <v>3.500390275731109</v>
+        <v>5.290116896918171</v>
       </c>
       <c r="BW29">
-        <v>0.8659733053640313</v>
+        <v>0.333333333333335</v>
       </c>
       <c r="BX29">
-        <v>-0.5565868517238205</v>
+        <v>-0.352078239608802</v>
       </c>
       <c r="BY29">
-        <v>0.7319772101032191</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="BZ29">
-        <v>0.1098625058156475</v>
+        <v>0.394255874673629</v>
       </c>
       <c r="CA29">
-        <v>-0.4136795807753967</v>
+        <v>0.08984175599795813</v>
       </c>
       <c r="CB29">
-        <v>-0.7275416025331601</v>
+        <v>-0.48</v>
       </c>
       <c r="CC29">
-        <v>2.989407205371272</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CD29">
-        <v>2.896525301064495</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="CE29">
-        <v>1.413193724159354</v>
+        <v>1.595816683093642</v>
       </c>
       <c r="CF29">
-        <v>0.9562629352720579</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG29">
-        <v>1.296342682761545</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="CH29">
-        <v>0.6815527128840346</v>
+        <v>0.6941287584223222</v>
       </c>
       <c r="CI29">
-        <v>3.41684929186737</v>
+        <v>2.51063829787234</v>
       </c>
       <c r="CJ29">
-        <v>0.4244020741617467</v>
+        <v>0.5206023674760608</v>
       </c>
       <c r="CK29">
-        <v>0.6403930227063174</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL29">
         <v>1</v>
       </c>
       <c r="CM29">
-        <v>1.646720457709246</v>
+        <v>1.764758900405588</v>
       </c>
       <c r="CN29">
-        <v>0.8574701145101946</v>
+        <v>1.343311506080449</v>
       </c>
       <c r="CO29">
-        <v>2.234914008100206</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="CP29">
-        <v>2.477711544261077</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ29">
-        <v>2.948231982192432</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CR29">
         <v>1</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="CU29">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV29">
-        <v>0.08855030434608425</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="CW29">
-        <v>0.5784041146801</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CX29">
-        <v>-2.221006078966638</v>
+        <v>-0.9947096796369372</v>
       </c>
       <c r="CY29">
-        <v>-2.015195399098001</v>
+        <v>-0.7373733287023906</v>
       </c>
       <c r="CZ29">
-        <v>-0.4694606334076635</v>
+        <v>-0.008212061513224907</v>
       </c>
       <c r="DA29">
-        <v>0.8433012901061814</v>
+        <v>0.7418032786885246</v>
       </c>
       <c r="DB29">
-        <v>0.008967255578550427</v>
+        <v>0.08491546869005558</v>
       </c>
       <c r="DC29">
         <v>0</v>
@@ -10067,28 +10067,28 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.1566127029585423</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D30">
-        <v>-0.7220824426275789</v>
+        <v>-1.333333333333331</v>
       </c>
       <c r="E30">
-        <v>0.1060715004105407</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="F30">
-        <v>0.8169720157699684</v>
+        <v>0.7185567525508434</v>
       </c>
       <c r="G30">
-        <v>-0.1918778708768153</v>
+        <v>-0.3806155819631457</v>
       </c>
       <c r="H30">
-        <v>1.415391756844556</v>
+        <v>1.914529914529915</v>
       </c>
       <c r="I30">
-        <v>-0.4848854919157269</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J30">
-        <v>1.100282825408589</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10112,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>-0.8936423804682792</v>
+        <v>-0.2608695652173913</v>
       </c>
       <c r="S30">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T30">
-        <v>1.42637551952295</v>
+        <v>1.872340425531915</v>
       </c>
       <c r="U30">
         <v>12</v>
@@ -10256,94 +10256,94 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>-0.1089856325779778</v>
+        <v>0.1187617275275476</v>
       </c>
       <c r="BO30">
-        <v>-0.5018958138737794</v>
+        <v>-0.2809194725270261</v>
       </c>
       <c r="BP30">
-        <v>-0.5644319306382616</v>
+        <v>-0.4003831053095605</v>
       </c>
       <c r="BQ30">
-        <v>0.1661457306710611</v>
+        <v>0.2994454713493532</v>
       </c>
       <c r="BR30">
-        <v>0.8057496783438528</v>
+        <v>0.6591928251121081</v>
       </c>
       <c r="BS30">
-        <v>-0.43972475779954</v>
+        <v>-0.1666666666666668</v>
       </c>
       <c r="BT30">
-        <v>-0.4530109713597787</v>
+        <v>-0.5298688809432507</v>
       </c>
       <c r="BU30">
-        <v>0.000835423168179402</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="BV30">
-        <v>-0.4544854458549516</v>
+        <v>-0.4739638682252924</v>
       </c>
       <c r="BW30">
-        <v>-0.00184822180179691</v>
+        <v>-0.4054054054054043</v>
       </c>
       <c r="BX30">
-        <v>-2.412555328669864</v>
+        <v>-1.853300733496333</v>
       </c>
       <c r="BY30">
-        <v>0.8860776753881074</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="BZ30">
-        <v>-0.2983236438449963</v>
+        <v>-0.2167101827676241</v>
       </c>
       <c r="CA30">
-        <v>-0.5946966823196219</v>
+        <v>-0.1633486472690149</v>
       </c>
       <c r="CB30">
-        <v>-0.4367283454817588</v>
+        <v>-0.1454545454545455</v>
       </c>
       <c r="CC30">
-        <v>-1.708232688783587</v>
+        <v>-1.000000000000002</v>
       </c>
       <c r="CD30">
-        <v>-1.154023957850321</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="CE30">
-        <v>-1.083694620771715</v>
+        <v>-0.7379804832372873</v>
       </c>
       <c r="CF30">
-        <v>-0.9562629352720579</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG30">
-        <v>-1.066154822076821</v>
+        <v>-0.8450704225352113</v>
       </c>
       <c r="CH30">
-        <v>-0.9691208827603132</v>
+        <v>-0.8594390849750777</v>
       </c>
       <c r="CI30">
-        <v>-0.7912491508134406</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="CJ30">
-        <v>0.5787137462000835</v>
+        <v>0.6281898746289987</v>
       </c>
       <c r="CK30">
-        <v>-1.349477603137534</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL30">
         <v>1</v>
       </c>
       <c r="CM30">
-        <v>-0.8777183035791934</v>
+        <v>-0.7260928346101848</v>
       </c>
       <c r="CN30">
-        <v>-1.141633512152005</v>
+        <v>-0.5575304022450892</v>
       </c>
       <c r="CO30">
-        <v>1.277093718914401</v>
+        <v>0.7499999999999997</v>
       </c>
       <c r="CP30">
-        <v>0.539278561390196</v>
+        <v>0.25</v>
       </c>
       <c r="CQ30">
-        <v>1.822255175734383</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR30">
         <v>1</v>
@@ -10355,28 +10355,28 @@
         <v>0</v>
       </c>
       <c r="CU30">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV30">
-        <v>-1.23970426084518</v>
+        <v>-0.9444444444444444</v>
       </c>
       <c r="CW30">
-        <v>0.34704246880806</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="CX30">
-        <v>-0.8914887585958685</v>
+        <v>-0.296395411723741</v>
       </c>
       <c r="CY30">
-        <v>-4.77779237748708</v>
+        <v>-2.070252919964413</v>
       </c>
       <c r="CZ30">
-        <v>-1.233134478866695</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA30">
-        <v>-0.9207828349860934</v>
+        <v>-0.6270491803278688</v>
       </c>
       <c r="DB30">
-        <v>-0.8744744867125339</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC30">
         <v>0</v>
@@ -10390,28 +10390,28 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-1.958377154377512</v>
+        <v>-1.384615384615385</v>
       </c>
       <c r="D31">
-        <v>0.7238801810438038</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>1.878798773137813</v>
+        <v>2.028169014084507</v>
       </c>
       <c r="F31">
-        <v>1.534344230996194</v>
+        <v>1.36501412960722</v>
       </c>
       <c r="G31">
-        <v>2.150649182593968</v>
+        <v>1.713375488054216</v>
       </c>
       <c r="H31">
-        <v>-0.3288283879537857</v>
+        <v>-0.1709401709401709</v>
       </c>
       <c r="I31">
-        <v>-1.254314471767199</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J31">
-        <v>-0.7001799798054656</v>
+        <v>-0.6883383540807024</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -10435,13 +10435,13 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>-1.228750725281047</v>
+        <v>-0.927536231884058</v>
       </c>
       <c r="S31">
-        <v>-0.9237057987962486</v>
+        <v>-0.7142857142857145</v>
       </c>
       <c r="T31">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>6</v>
@@ -10579,94 +10579,94 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>-0.1708194261793896</v>
+        <v>-0.09235307290178608</v>
       </c>
       <c r="BO31">
-        <v>-0.3210184690185174</v>
+        <v>-0.1209917791803553</v>
       </c>
       <c r="BP31">
-        <v>-0.4069020776074377</v>
+        <v>-0.2399609283326673</v>
       </c>
       <c r="BQ31">
-        <v>-0.04230680160199765</v>
+        <v>0.1367837338262481</v>
       </c>
       <c r="BR31">
-        <v>-0.170667822623694</v>
+        <v>-0.04035874439461878</v>
       </c>
       <c r="BS31">
-        <v>-0.908764499452382</v>
+        <v>-0.611111111111111</v>
       </c>
       <c r="BT31">
-        <v>1.273599864887125</v>
+        <v>1.433094082019712</v>
       </c>
       <c r="BU31">
-        <v>-0.2090089970292975</v>
+        <v>-0.5405405405405406</v>
       </c>
       <c r="BV31">
-        <v>-0.2999069700112486</v>
+        <v>-0.2486716259298618</v>
       </c>
       <c r="BW31">
-        <v>-0.08651373664724323</v>
+        <v>-0.4774774774774762</v>
       </c>
       <c r="BX31">
-        <v>-0.6895878500717456</v>
+        <v>-0.4596577017114917</v>
       </c>
       <c r="BY31">
-        <v>1.348379071242772</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="BZ31">
-        <v>-0.4099643001624373</v>
+        <v>-0.3838120104438642</v>
       </c>
       <c r="CA31">
-        <v>-0.6662276337362917</v>
+        <v>-0.2633996937212865</v>
       </c>
       <c r="CB31">
-        <v>-0.8034059304596126</v>
+        <v>-0.5672727272727273</v>
       </c>
       <c r="CC31">
-        <v>-0.4270581721958986</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD31">
-        <v>-0.3181963329948826</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE31">
-        <v>-1.753022264980287</v>
+        <v>-1.363589138334777</v>
       </c>
       <c r="CF31">
-        <v>-0.9562629352720579</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG31">
-        <v>-0.4958968036675604</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH31">
-        <v>-1.295088502052008</v>
+        <v>-1.166230695779697</v>
       </c>
       <c r="CI31">
-        <v>-0.04864354328153284</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ31">
-        <v>0.3807942269691596</v>
+        <v>0.4901985781205083</v>
       </c>
       <c r="CK31">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL31">
         <v>1</v>
       </c>
       <c r="CM31">
-        <v>-0.7519165572321664</v>
+        <v>-0.6019648490310953</v>
       </c>
       <c r="CN31">
-        <v>-1.775994741714891</v>
+        <v>-1.160710944808232</v>
       </c>
       <c r="CO31">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP31">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ31">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR31">
         <v>1</v>
@@ -10678,28 +10678,28 @@
         <v>0</v>
       </c>
       <c r="CU31">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV31">
-        <v>1.062603652153011</v>
+        <v>0.5</v>
       </c>
       <c r="CW31">
-        <v>0.63624452614811</v>
+        <v>0.32</v>
       </c>
       <c r="CX31">
-        <v>-2.234072588257751</v>
+        <v>-1.001572719125028</v>
       </c>
       <c r="CY31">
-        <v>-1.054292102267018</v>
+        <v>-0.2737630360895135</v>
       </c>
       <c r="CZ31">
-        <v>-1.45118212398448</v>
+        <v>-0.7558810129400564</v>
       </c>
       <c r="DA31">
-        <v>0.6214703522203264</v>
+        <v>0.569672131147541</v>
       </c>
       <c r="DB31">
-        <v>-0.2434446707903306</v>
+        <v>-0.08491546869005595</v>
       </c>
       <c r="DC31">
         <v>0</v>
@@ -10713,25 +10713,25 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-2.342920764802249</v>
+        <v>-1.692307692307692</v>
       </c>
       <c r="D32">
-        <v>0.1980755906178459</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E32">
-        <v>0.3787987731378134</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F32">
-        <v>0.2544705811078328</v>
+        <v>0.211660619240941</v>
       </c>
       <c r="G32">
-        <v>0.4529989704919958</v>
+        <v>0.195841515975824</v>
       </c>
       <c r="H32">
-        <v>0.5003910251470651</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="I32">
-        <v>2.313038071180533</v>
+        <v>2.026666666666667</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <v>-1.316170293493073</v>
+        <v>-1.101449275362319</v>
       </c>
       <c r="S32">
-        <v>-0.9406007213810192</v>
+        <v>-0.7619047619047621</v>
       </c>
       <c r="T32">
-        <v>0.6113037940812643</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="U32">
         <v>9</v>
@@ -10902,94 +10902,94 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>0.0396506847404122</v>
+        <v>0.6262403187570944</v>
       </c>
       <c r="BO32">
-        <v>0.6120136767760183</v>
+        <v>0.7039743270758966</v>
       </c>
       <c r="BP32">
-        <v>1.102698805627848</v>
+        <v>1.297356953932221</v>
       </c>
       <c r="BQ32">
-        <v>0.7820282123869176</v>
+        <v>0.7800369685767102</v>
       </c>
       <c r="BR32">
-        <v>1.281440255738298</v>
+        <v>1</v>
       </c>
       <c r="BS32">
-        <v>-0.6449296447726584</v>
+        <v>-0.3611111111111112</v>
       </c>
       <c r="BT32">
-        <v>0.361428102341591</v>
+        <v>0.3960570449826752</v>
       </c>
       <c r="BU32">
-        <v>1.050057524155564</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV32">
-        <v>-0.9415534735134119</v>
+        <v>-1.18384697130712</v>
       </c>
       <c r="BW32">
-        <v>0.9506388202094775</v>
+        <v>0.4054054054054069</v>
       </c>
       <c r="BX32">
-        <v>-0.3752218539766501</v>
+        <v>-0.2053789731051346</v>
       </c>
       <c r="BY32">
-        <v>1.11722837331544</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="BZ32">
-        <v>-0.4169418411822773</v>
+        <v>-0.3942558746736292</v>
       </c>
       <c r="CA32">
-        <v>-0.1377744824539567</v>
+        <v>0.4757529351710056</v>
       </c>
       <c r="CB32">
-        <v>0.06903384069459138</v>
+        <v>0.4363636363636364</v>
       </c>
       <c r="CC32">
-        <v>2.135290860979482</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD32">
-        <v>1.803519945484306</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE32">
-        <v>1.037788256739356</v>
+        <v>1.244931863646854</v>
       </c>
       <c r="CF32">
-        <v>1.912525870544117</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="CG32">
-        <v>2.844185875586681</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="CH32">
-        <v>2.519373808547225</v>
+        <v>2.423834597101579</v>
       </c>
       <c r="CI32">
-        <v>-1.038784353324077</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ32">
-        <v>-2.599104673945259</v>
+        <v>-1.58741415254521</v>
       </c>
       <c r="CK32">
-        <v>-1.349477603137534</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL32">
         <v>1</v>
       </c>
       <c r="CM32">
-        <v>-0.2989498858804113</v>
+        <v>-0.1550247859396129</v>
       </c>
       <c r="CN32">
-        <v>-0.7992673398693052</v>
+        <v>-0.2319925163704398</v>
       </c>
       <c r="CO32">
-        <v>-0.319273429728601</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP32">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ32">
-        <v>0.1332899660473119</v>
+        <v>0</v>
       </c>
       <c r="CR32">
         <v>1</v>
@@ -11001,28 +11001,28 @@
         <v>0</v>
       </c>
       <c r="CU32">
-        <v>2.580078219295342</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="CV32">
-        <v>-0.2656509130382528</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CW32">
-        <v>1.61953152110428</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="CX32">
-        <v>-1.115252730206182</v>
+        <v>-0.4139249629572887</v>
       </c>
       <c r="CY32">
-        <v>-2.701554896834419</v>
+        <v>-1.068523537711589</v>
       </c>
       <c r="CZ32">
-        <v>-1.233134478866695</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA32">
-        <v>-0.160219619377448</v>
+        <v>-0.03688524590163934</v>
       </c>
       <c r="DB32">
-        <v>2.154468629714042</v>
+        <v>1.528478436421006</v>
       </c>
       <c r="DC32">
         <v>0</v>
@@ -11036,28 +11036,28 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-0.6124745178909319</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D33">
-        <v>0.5924290334373143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E33">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F33">
-        <v>-0.6314624803046824</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G33">
-        <v>0.1009228408661981</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H33">
-        <v>0.100078205029413</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I33">
-        <v>-1.254314471767199</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J33">
-        <v>-0.3000771342023424</v>
+        <v>-0.2950021517488725</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -11081,13 +11081,13 @@
         <v>2</v>
       </c>
       <c r="R33">
-        <v>-0.9227822365389545</v>
+        <v>-0.3188405797101449</v>
       </c>
       <c r="S33">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T33">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>6</v>
@@ -11225,94 +11225,94 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>-0.2398543462923923</v>
+        <v>-0.328054176351127</v>
       </c>
       <c r="BO33">
-        <v>1.551776462911244</v>
+        <v>1.534891514631434</v>
       </c>
       <c r="BP33">
-        <v>1.405899550746482</v>
+        <v>1.606124610710457</v>
       </c>
       <c r="BQ33">
-        <v>1.341060003482848</v>
+        <v>1.216266173752311</v>
       </c>
       <c r="BR33">
-        <v>2.2828941028845</v>
+        <v>1.717488789237668</v>
       </c>
       <c r="BS33">
-        <v>0.02931498385330267</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="BT33">
-        <v>-0.6919130996455137</v>
+        <v>-0.8014738192148556</v>
       </c>
       <c r="BU33">
-        <v>0.1582187383162871</v>
+        <v>-0.1621621621621622</v>
       </c>
       <c r="BV33">
-        <v>-0.06658096873773464</v>
+        <v>0.09139213602550472</v>
       </c>
       <c r="BW33">
-        <v>0.3791465950027123</v>
+        <v>-0.08108108108108035</v>
       </c>
       <c r="BX33">
-        <v>-0.3449943543521217</v>
+        <v>-0.1809290953545233</v>
       </c>
       <c r="BY33">
-        <v>0.577876744818331</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="BZ33">
-        <v>0.03310955459740695</v>
+        <v>0.2793733681462141</v>
       </c>
       <c r="CA33">
-        <v>-0.6866650484267687</v>
+        <v>-0.2919857069933641</v>
       </c>
       <c r="CB33">
-        <v>-0.942490531658109</v>
+        <v>-0.7272727272727274</v>
       </c>
       <c r="CC33">
-        <v>-0.4270581721958986</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD33">
-        <v>-0.3181963329948826</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE33">
-        <v>-0.5334066372981554</v>
+        <v>-0.2236360836954612</v>
       </c>
       <c r="CF33">
         <v>0</v>
       </c>
       <c r="CG33">
-        <v>-0.08856964766094561</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH33">
-        <v>-0.11481982497825</v>
+        <v>-0.05539481150227563</v>
       </c>
       <c r="CI33">
-        <v>-0.6674815495581227</v>
+        <v>-0.2978723404255319</v>
       </c>
       <c r="CJ33">
-        <v>-0.3633831653391144</v>
+        <v>-0.02864869675141547</v>
       </c>
       <c r="CK33">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL33">
         <v>1</v>
       </c>
       <c r="CM33">
-        <v>-0.07241174258922112</v>
+        <v>0.06849932401982844</v>
       </c>
       <c r="CN33">
-        <v>-0.3900020304738942</v>
+        <v>0.1571562207670722</v>
       </c>
       <c r="CO33">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP33">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ33">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR33">
         <v>1</v>
@@ -11327,25 +11327,25 @@
         <v>0</v>
       </c>
       <c r="CV33">
-        <v>1.328254565191264</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CW33">
-        <v>-0.05784041146801</v>
+        <v>-0.32</v>
       </c>
       <c r="CX33">
-        <v>-2.172006669124964</v>
+        <v>-0.9689732815565983</v>
       </c>
       <c r="CY33">
-        <v>-0.3850915919740108</v>
+        <v>0.04910841769445454</v>
       </c>
       <c r="CZ33">
-        <v>-0.1317403272484902</v>
+        <v>0.2489922368598481</v>
       </c>
       <c r="DA33">
-        <v>5.25879329183415</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB33">
-        <v>-0.2434446707903306</v>
+        <v>-0.08491546869005595</v>
       </c>
       <c r="DC33">
         <v>0</v>
@@ -11359,25 +11359,25 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.060476800352358</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D34">
-        <v>-0.1962778522016225</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E34">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F34">
-        <v>0.02151809015982088</v>
+        <v>0.001736324599126936</v>
       </c>
       <c r="G34">
-        <v>-0.1869915777885337</v>
+        <v>-0.3762477117704879</v>
       </c>
       <c r="H34">
-        <v>-0.01429688643277329</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I34">
-        <v>1.263816735019436</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -11404,13 +11404,13 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>-0.5293941795848356</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="S34">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T34">
-        <v>0.4075358627208429</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U34">
         <v>9</v>
@@ -11548,94 +11548,94 @@
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>-0.1637178127226071</v>
+        <v>-0.06810653035064829</v>
       </c>
       <c r="BO34">
-        <v>-0.4930517984090504</v>
+        <v>-0.2730997923214802</v>
       </c>
       <c r="BP34">
-        <v>-0.5460455584198926</v>
+        <v>-0.3816591504449476</v>
       </c>
       <c r="BQ34">
-        <v>0.4314489535640456</v>
+        <v>0.5064695009242147</v>
       </c>
       <c r="BR34">
-        <v>0.56790438964663</v>
+        <v>0.4887892376681618</v>
       </c>
       <c r="BS34">
-        <v>386.6353220412085</v>
+        <v>366.6111111111111</v>
       </c>
       <c r="BT34">
-        <v>-0.2141088430740436</v>
+        <v>-0.2582639426716458</v>
       </c>
       <c r="BU34">
-        <v>-1.363153308115421</v>
+        <v>-1.72972972972973</v>
       </c>
       <c r="BV34">
-        <v>-0.6761451470647898</v>
+        <v>-0.7970244420828906</v>
       </c>
       <c r="BW34">
-        <v>-1.546993867731199</v>
+        <v>-1.720720720720721</v>
       </c>
       <c r="BX34">
-        <v>-2.007506833701183</v>
+        <v>-1.525672371638142</v>
       </c>
       <c r="BY34">
-        <v>0.7705023264244413</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="BZ34">
-        <v>0.479672179867171</v>
+        <v>0.9477806788511746</v>
       </c>
       <c r="CA34">
-        <v>-0.5684200062890087</v>
+        <v>-0.1265952016334865</v>
       </c>
       <c r="CB34">
-        <v>0.1828303325842702</v>
+        <v>0.5672727272727274</v>
       </c>
       <c r="CC34">
-        <v>-0.4270581721958986</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD34">
-        <v>-0.3181963329948826</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE34">
-        <v>-0.3121042227956424</v>
+        <v>-0.01678864940123139</v>
       </c>
       <c r="CF34">
-        <v>-0.4781314676360295</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG34">
-        <v>-0.7402930972715293</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="CH34">
-        <v>-0.634103250850223</v>
+        <v>-0.5441298552884576</v>
       </c>
       <c r="CI34">
-        <v>0.3226592604844211</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ34">
-        <v>0.8273006623541242</v>
+        <v>0.8015069430436627</v>
       </c>
       <c r="CK34">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL34">
         <v>1</v>
       </c>
       <c r="CM34">
-        <v>-0.3044306474116495</v>
+        <v>-0.160432627309599</v>
       </c>
       <c r="CN34">
-        <v>-0.4962536011823183</v>
+        <v>0.05612722170252574</v>
       </c>
       <c r="CO34">
-        <v>-0.9578202891858031</v>
+        <v>-1</v>
       </c>
       <c r="CP34">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ34">
-        <v>-0.9926868404107373</v>
+        <v>-1</v>
       </c>
       <c r="CR34">
         <v>1</v>
@@ -11647,28 +11647,28 @@
         <v>0</v>
       </c>
       <c r="CU34">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV34">
-        <v>-1.948106695613854</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="CW34">
-        <v>0.63624452614811</v>
+        <v>0.32</v>
       </c>
       <c r="CX34">
-        <v>-2.221006078966638</v>
+        <v>-0.9947096796369372</v>
       </c>
       <c r="CY34">
-        <v>-3.59382224389176</v>
+        <v>-1.499018809423546</v>
       </c>
       <c r="CZ34">
-        <v>-0.006996790739245889</v>
+        <v>0.3439956263490013</v>
       </c>
       <c r="DA34">
-        <v>-0.9947264809480449</v>
+        <v>-0.6844262295081968</v>
       </c>
       <c r="DB34">
-        <v>-1.000680449896975</v>
+        <v>-0.5944082808303913</v>
       </c>
       <c r="DC34">
         <v>0</v>
@@ -11682,25 +11682,25 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-0.5163386152847477</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D35">
-        <v>0.5924290334373143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E35">
-        <v>0.3787987731378134</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F35">
-        <v>-0.09339368670133497</v>
+        <v>-0.1018160074899047</v>
       </c>
       <c r="G35">
-        <v>0.6043410721464166</v>
+        <v>0.331126617128646</v>
       </c>
       <c r="H35">
-        <v>0.4432034794159719</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="I35">
-        <v>1.543609091329062</v>
+        <v>1.44</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -11727,13 +11727,13 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>-0.8790724524329414</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S35">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T35">
-        <v>-0.6113037940812643</v>
+        <v>-0.6808510638297872</v>
       </c>
       <c r="U35">
         <v>3</v>
@@ -11871,94 +11871,94 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>-0.2006281094151836</v>
+        <v>-0.1941267769858614</v>
       </c>
       <c r="BO35">
-        <v>-0.504813190403703</v>
+        <v>-0.2834989514519724</v>
       </c>
       <c r="BP35">
-        <v>-0.532940908302193</v>
+        <v>-0.3683138926417141</v>
       </c>
       <c r="BQ35">
-        <v>-1.16984549889718</v>
+        <v>-0.7430683918669126</v>
       </c>
       <c r="BR35">
-        <v>-1.547666862449721</v>
+        <v>-1.026905829596413</v>
       </c>
       <c r="BS35">
-        <v>0.1758899031198154</v>
+        <v>0.4166666666666664</v>
       </c>
       <c r="BT35">
-        <v>0.1768219123026139</v>
+        <v>0.1861805017727987</v>
       </c>
       <c r="BU35">
-        <v>-0.1565478919799283</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="BV35">
-        <v>-0.2386588946769511</v>
+        <v>-0.1594048884165781</v>
       </c>
       <c r="BW35">
-        <v>-0.00184822180179691</v>
+        <v>-0.4054054054054043</v>
       </c>
       <c r="BX35">
-        <v>-0.7379518494709908</v>
+        <v>-0.4987775061124695</v>
       </c>
       <c r="BY35">
-        <v>0.9631279080305515</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="BZ35">
-        <v>-0.0645760196803541</v>
+        <v>0.1331592689295037</v>
       </c>
       <c r="CA35">
-        <v>-0.5056479468825434</v>
+        <v>-0.03879530372639114</v>
       </c>
       <c r="CB35">
-        <v>-0.7781178211507951</v>
+        <v>-0.5381818181818182</v>
       </c>
       <c r="CC35">
-        <v>2.562349033175377</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CD35">
-        <v>2.832230868383307</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="CE35">
-        <v>1.773012194715597</v>
+        <v>1.932132613552628</v>
       </c>
       <c r="CF35">
-        <v>1.434394402908087</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="CG35">
-        <v>2.518324150781389</v>
+        <v>1.633802816901408</v>
       </c>
       <c r="CH35">
-        <v>2.093127759932991</v>
+        <v>2.02266373191682</v>
       </c>
       <c r="CI35">
-        <v>1.436567671782283</v>
+        <v>1.148936170212766</v>
       </c>
       <c r="CJ35">
-        <v>-1.152402015901862</v>
+        <v>-0.5787598458784425</v>
       </c>
       <c r="CK35">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL35">
         <v>1</v>
       </c>
       <c r="CM35">
-        <v>0.9013368894608135</v>
+        <v>1.029292474087426</v>
       </c>
       <c r="CN35">
-        <v>0.3576942078446442</v>
+        <v>0.8681010289990643</v>
       </c>
       <c r="CO35">
-        <v>2.554187437828805</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CP35">
-        <v>3.770000199508329</v>
+        <v>2.749999999999997</v>
       </c>
       <c r="CQ35">
-        <v>3.511220385421457</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="CR35">
         <v>2</v>
@@ -11973,25 +11973,25 @@
         <v>0</v>
       </c>
       <c r="CV35">
-        <v>-0.4427515217304213</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW35">
-        <v>0.52056370321209</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="CX35">
-        <v>-0.276320767526492</v>
+        <v>0.02671477175806877</v>
       </c>
       <c r="CY35">
-        <v>0.5043311049942318</v>
+        <v>0.478231221370827</v>
       </c>
       <c r="CZ35">
-        <v>2.122186227350351</v>
+        <v>1.965559430147898</v>
       </c>
       <c r="DA35">
-        <v>-0.4825606484207921</v>
+        <v>-0.2870078471833534</v>
       </c>
       <c r="DB35">
-        <v>-0.3827283017289645</v>
+        <v>-0.1786300167476789</v>
       </c>
       <c r="DC35">
         <v>0</v>
@@ -12005,28 +12005,28 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.060476800352358</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D36">
-        <v>0.5267034596340696</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>0.1060715004105407</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="F36">
-        <v>-0.3644327740940341</v>
+        <v>-0.346061900760783</v>
       </c>
       <c r="G36">
-        <v>0.2816737421152966</v>
+        <v>0.0426934454944396</v>
       </c>
       <c r="H36">
-        <v>-0.5575785708781583</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I36">
-        <v>-1.254314471767199</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J36">
-        <v>0.8002056912062465</v>
+        <v>0.78667240466366</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -12050,13 +12050,13 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>-0.6313836758321998</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S36">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T36">
-        <v>-0.3396132189340357</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U36">
         <v>3</v>
@@ -12194,94 +12194,94 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>-0.2183323865297356</v>
+        <v>-0.2545732531292712</v>
       </c>
       <c r="BO36">
-        <v>-0.5201351600529867</v>
+        <v>-0.2970462935223597</v>
       </c>
       <c r="BP36">
-        <v>-0.566848567637153</v>
+        <v>-0.4028441129272671</v>
       </c>
       <c r="BQ36">
-        <v>-1.852053786336283</v>
+        <v>-1.275415896487985</v>
       </c>
       <c r="BR36">
-        <v>-2.21113003618408</v>
+        <v>-1.502242152466368</v>
       </c>
       <c r="BS36">
-        <v>-0.4104097739462373</v>
+        <v>-0.138888888888889</v>
       </c>
       <c r="BT36">
-        <v>0.1985402876013169</v>
+        <v>0.2108718597974898</v>
       </c>
       <c r="BU36">
-        <v>-0.4188534172267745</v>
+        <v>-0.7567567567567568</v>
       </c>
       <c r="BV36">
-        <v>-0.1249124690561129</v>
+        <v>0.006376195536663366</v>
       </c>
       <c r="BW36">
-        <v>-0.5310076895858383</v>
+        <v>-0.855855855855855</v>
       </c>
       <c r="BX36">
-        <v>-0.2543118554785365</v>
+        <v>-0.1075794621026896</v>
       </c>
       <c r="BY36">
-        <v>0.3467260468909986</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="BZ36">
-        <v>-0.5006723334203582</v>
+        <v>-0.5195822454308094</v>
       </c>
       <c r="CA36">
-        <v>-0.7202408011325523</v>
+        <v>-0.3389484430832058</v>
       </c>
       <c r="CB36">
-        <v>-0.8286940397684301</v>
+        <v>-0.5963636363636364</v>
       </c>
       <c r="CC36">
-        <v>2.135290860979482</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD36">
-        <v>2.060697676209057</v>
+        <v>1.476190476190476</v>
       </c>
       <c r="CE36">
-        <v>1.419227038646135</v>
+        <v>1.60145591493251</v>
       </c>
       <c r="CF36">
-        <v>1.434394402908087</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="CG36">
-        <v>2.110996994774774</v>
+        <v>1.352112676056338</v>
       </c>
       <c r="CH36">
-        <v>1.943102744815667</v>
+        <v>1.88146438165975</v>
       </c>
       <c r="CI36">
-        <v>0.5701944629950569</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ36">
-        <v>-1.322545137647557</v>
+        <v>-0.6973851843641174</v>
       </c>
       <c r="CK36">
-        <v>1.303683231320935</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="CL36">
         <v>1</v>
       </c>
       <c r="CM36">
-        <v>1.619316650053053</v>
+        <v>1.737719693555655</v>
       </c>
       <c r="CN36">
-        <v>1.325764074299175</v>
+        <v>1.788587464920487</v>
       </c>
       <c r="CO36">
-        <v>0.9578202891858016</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP36">
-        <v>1.185422889013822</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ36">
-        <v>0.6962783692763365</v>
+        <v>0.5</v>
       </c>
       <c r="CR36">
         <v>1</v>
@@ -12293,28 +12293,28 @@
         <v>0</v>
       </c>
       <c r="CU36">
-        <v>0.5160156438590684</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV36">
-        <v>0.4974667954163524</v>
+        <v>0.1454389143800401</v>
       </c>
       <c r="CW36">
-        <v>0.09908103077320488</v>
+        <v>-0.1753062923691884</v>
       </c>
       <c r="CX36">
-        <v>-0.3562148772458045</v>
+        <v>-0.01524872573413352</v>
       </c>
       <c r="CY36">
-        <v>-0.3245263181524577</v>
+        <v>0.07832955202835838</v>
       </c>
       <c r="CZ36">
-        <v>-0.4490965894986537</v>
+        <v>0.007296984079037132</v>
       </c>
       <c r="DA36">
-        <v>-0.2670197780634669</v>
+        <v>-0.1197575181256474</v>
       </c>
       <c r="DB36">
-        <v>-0.4900308628271173</v>
+        <v>-0.2508266629075518</v>
       </c>
       <c r="DC36">
         <v>0</v>
@@ -12328,28 +12328,28 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.1566127029585423</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D37">
-        <v>0.8553313286502933</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E37">
-        <v>1.742435136774177</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F37">
-        <v>1.237031226667534</v>
+        <v>1.097091591120772</v>
       </c>
       <c r="G37">
-        <v>2.080931311946692</v>
+        <v>1.651054500836707</v>
       </c>
       <c r="H37">
-        <v>0.3860159336848788</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="I37">
-        <v>-0.4848854919157269</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J37">
-        <v>1.20030853680937</v>
+        <v>1.18000860699549</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -12373,13 +12373,13 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>-0.7625130281502395</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>-0.6702819600246906</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>-0.6792264378680715</v>
+        <v>-0.7659574468085106</v>
       </c>
       <c r="U37">
         <v>3</v>
@@ -12517,94 +12517,94 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>-0.1815849293813911</v>
+        <v>-0.1291089781703899</v>
       </c>
       <c r="BO37">
-        <v>-0.5188947007410506</v>
+        <v>-0.2959495072078156</v>
       </c>
       <c r="BP37">
-        <v>-0.57980373505389</v>
+        <v>-0.4160371434551786</v>
       </c>
       <c r="BQ37">
-        <v>-1.302497110343673</v>
+        <v>-0.8465804066543434</v>
       </c>
       <c r="BR37">
-        <v>-0.821612823268725</v>
+        <v>-0.5067264573991032</v>
       </c>
       <c r="BS37">
-        <v>-1.231229321838711</v>
+        <v>-0.9166666666666669</v>
       </c>
       <c r="BT37">
-        <v>-0.4095742207623723</v>
+        <v>-0.4804861648938679</v>
       </c>
       <c r="BU37">
-        <v>0.368063158513764</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="BV37">
-        <v>-0.6294799468100869</v>
+        <v>-0.7290116896918172</v>
       </c>
       <c r="BW37">
-        <v>0.3368138375799899</v>
+        <v>-0.1171171171171156</v>
       </c>
       <c r="BX37">
-        <v>1.323563624921845</v>
+        <v>1.168704156479217</v>
       </c>
       <c r="BY37">
-        <v>-0.616401861139553</v>
+        <v>-0.7192982456140351</v>
       </c>
       <c r="BZ37">
-        <v>0.01915447255772675</v>
+        <v>0.258485639686684</v>
       </c>
       <c r="CA37">
-        <v>-0.7406782158230294</v>
+        <v>-0.3675344563552834</v>
       </c>
       <c r="CB37">
-        <v>2.307031514524941</v>
+        <v>3.010909090909092</v>
       </c>
       <c r="CC37">
-        <v>4.270581721958964</v>
+        <v>2.500000000000004</v>
       </c>
       <c r="CD37">
-        <v>3.860941791282308</v>
+        <v>2.809523809523809</v>
       </c>
       <c r="CE37">
-        <v>1.300544628016228</v>
+        <v>1.490525574701758</v>
       </c>
       <c r="CF37">
-        <v>3.107854539634189</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="CG37">
-        <v>4.880821655619755</v>
+        <v>3.267605633802817</v>
       </c>
       <c r="CH37">
-        <v>3.06143092581291</v>
+        <v>2.93400360258563</v>
       </c>
       <c r="CI37">
-        <v>-0.1724111445368508</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="CJ37">
-        <v>-3.030307261960163</v>
+        <v>-1.888052535304055</v>
       </c>
       <c r="CK37">
-        <v>4.620134274394022</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="CL37">
         <v>1</v>
       </c>
       <c r="CM37">
-        <v>4.650177776827928</v>
+        <v>4.72825597115818</v>
       </c>
       <c r="CN37">
-        <v>2.927408121644676</v>
+        <v>3.311506080449019</v>
       </c>
       <c r="CO37">
-        <v>2.873460867557405</v>
+        <v>2</v>
       </c>
       <c r="CP37">
-        <v>1.83156721663745</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ37">
-        <v>2.385243578963408</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="CR37">
         <v>2</v>
@@ -12616,28 +12616,28 @@
         <v>0</v>
       </c>
       <c r="CU37">
-        <v>3.096093863154411</v>
+        <v>2</v>
       </c>
       <c r="CV37">
-        <v>4.870266739034634</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="CW37">
-        <v>-1.96657398991234</v>
+        <v>-2.08</v>
       </c>
       <c r="CX37">
-        <v>0.1188786120496483</v>
+        <v>0.2342888749307146</v>
       </c>
       <c r="CY37">
-        <v>2.728825156970864</v>
+        <v>1.551490457501733</v>
       </c>
       <c r="CZ37">
-        <v>3.00506960270802</v>
+        <v>2.63795429347925</v>
       </c>
       <c r="DA37">
-        <v>0.2195711217993055</v>
+        <v>0.2578158301846636</v>
       </c>
       <c r="DB37">
-        <v>0.8335632403141496</v>
+        <v>0.6397304136972984</v>
       </c>
       <c r="DC37">
         <v>0</v>
@@ -12651,28 +12651,28 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-2.246784862196065</v>
+        <v>-1.615384615384615</v>
       </c>
       <c r="D38">
-        <v>0.3952523120275801</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E38">
-        <v>1.742435136774177</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F38">
-        <v>1.746690482301845</v>
+        <v>1.556369185926924</v>
       </c>
       <c r="G38">
-        <v>1.879079970898949</v>
+        <v>1.470619058266791</v>
       </c>
       <c r="H38">
-        <v>-0.3002346150882391</v>
+        <v>-0.1367521367521368</v>
       </c>
       <c r="I38">
-        <v>-0.4848854919157269</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J38">
-        <v>0.6001542684046849</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -12696,13 +12696,13 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>-1.287030437422398</v>
+        <v>-1.043478260869565</v>
       </c>
       <c r="S38">
-        <v>-0.9321532600886339</v>
+        <v>-0.7380952380952384</v>
       </c>
       <c r="T38">
-        <v>-1.562220807096564</v>
+        <v>-1.872340425531915</v>
       </c>
       <c r="U38">
         <v>3</v>
@@ -12840,94 +12840,94 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>0.03137300790862117</v>
+        <v>0.5979784252102268</v>
       </c>
       <c r="BO38">
-        <v>0.492791754017724</v>
+        <v>0.5985609757336028</v>
       </c>
       <c r="BP38">
-        <v>0.5389218829101421</v>
+        <v>0.7232288154770219</v>
       </c>
       <c r="BQ38">
-        <v>-0.1654832979451688</v>
+        <v>0.04066543438077679</v>
       </c>
       <c r="BR38">
-        <v>-0.6463584000181396</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS38">
-        <v>0.7621895801858687</v>
+        <v>0.9722222222222225</v>
       </c>
       <c r="BT38">
-        <v>0.5025975417831615</v>
+        <v>0.5565508721431689</v>
       </c>
       <c r="BU38">
-        <v>0.2106798433656563</v>
+        <v>-0.1081081081081081</v>
       </c>
       <c r="BV38">
-        <v>-0.3290727201704376</v>
+        <v>-0.2911795961742825</v>
       </c>
       <c r="BW38">
-        <v>-0.06534735793588278</v>
+        <v>-0.4594594594594592</v>
       </c>
       <c r="BX38">
-        <v>-0.8709528478189159</v>
+        <v>-0.6063569682151592</v>
       </c>
       <c r="BY38">
-        <v>1.656580001812549</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="BZ38">
-        <v>0.7552850501508536</v>
+        <v>1.360313315926892</v>
       </c>
       <c r="CA38">
-        <v>0.3804599614831397</v>
+        <v>1.200612557427259</v>
       </c>
       <c r="CB38">
-        <v>0.08167789534900009</v>
+        <v>0.4509090909090909</v>
       </c>
       <c r="CC38">
-        <v>1.281174516587688</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD38">
-        <v>1.224870051353618</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CE38">
-        <v>-0.4825069722387061</v>
+        <v>-0.1760610712508356</v>
       </c>
       <c r="CF38">
-        <v>0.9562629352720579</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG38">
-        <v>1.459273545164191</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="CH38">
-        <v>0.3973499076126594</v>
+        <v>0.4266450230321108</v>
       </c>
       <c r="CI38">
-        <v>-0.04864354328153284</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ38">
-        <v>-1.227992318845369</v>
+        <v>-0.6314620954957425</v>
       </c>
       <c r="CK38">
-        <v>0.6403930227063174</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL38">
         <v>1</v>
       </c>
       <c r="CM38">
-        <v>1.010952120085583</v>
+        <v>1.137449301487156</v>
       </c>
       <c r="CN38">
-        <v>-0.1810406080806603</v>
+        <v>0.3558465855940134</v>
       </c>
       <c r="CO38">
-        <v>0.9578202891858016</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP38">
-        <v>1.185422889013822</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ38">
-        <v>4.074208788650481</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="CR38">
         <v>1</v>
@@ -12939,28 +12939,28 @@
         <v>0</v>
       </c>
       <c r="CU38">
-        <v>2.064062575436274</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="CV38">
-        <v>0.1771006086921685</v>
+        <v>-0.05555555555555555</v>
       </c>
       <c r="CW38">
-        <v>1.38816987523224</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="CX38">
-        <v>0.3432963694143301</v>
+        <v>0.3521618199008</v>
       </c>
       <c r="CY38">
-        <v>-0.9513381776065549</v>
+        <v>-0.2240905047381338</v>
       </c>
       <c r="CZ38">
-        <v>1.016305878673985</v>
+        <v>1.123332374272217</v>
       </c>
       <c r="DA38">
-        <v>5.25879329183415</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB38">
-        <v>-2.111292925920052</v>
+        <v>-1.341664405302883</v>
       </c>
       <c r="DC38">
         <v>0</v>
@@ -12974,28 +12974,28 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-1.766105349165143</v>
+        <v>-1.230769230769231</v>
       </c>
       <c r="D39">
-        <v>0.06662444301135645</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E39">
-        <v>1.060616954955995</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="F39">
-        <v>1.264589459059494</v>
+        <v>1.121925592564219</v>
       </c>
       <c r="G39">
-        <v>1.091023701422933</v>
+        <v>0.7661734944433146</v>
       </c>
       <c r="H39">
-        <v>0.5003910251470651</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="I39">
-        <v>-0.9745221154575725</v>
+        <v>-0.48</v>
       </c>
       <c r="J39">
-        <v>-1.400359959610931</v>
+        <v>-1.376676708161405</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -13019,13 +13019,13 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>-1.345310149563749</v>
+        <v>-1.159420289855073</v>
       </c>
       <c r="S39">
-        <v>-0.9490481826734045</v>
+        <v>-0.7857142857142859</v>
       </c>
       <c r="T39">
-        <v>-0.06792264378680715</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>6</v>
@@ -13163,94 +13163,94 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>-0.05592708108239914</v>
+        <v>0.2999158320656664</v>
       </c>
       <c r="BO39">
-        <v>-0.4273993407514001</v>
+        <v>-0.21505136108135</v>
       </c>
       <c r="BP39">
-        <v>-0.4917584241870655</v>
+        <v>-0.3263752782904877</v>
       </c>
       <c r="BQ39">
-        <v>-0.8855920457975547</v>
+        <v>-0.5212569316081328</v>
       </c>
       <c r="BR39">
-        <v>-1.24723070830586</v>
+        <v>-0.8116591928251121</v>
       </c>
       <c r="BS39">
-        <v>-1.084654402572198</v>
+        <v>-0.7777777777777779</v>
       </c>
       <c r="BT39">
-        <v>1.338754990783235</v>
+        <v>1.507168156093786</v>
       </c>
       <c r="BU39">
-        <v>1.574668574649257</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="BV39">
-        <v>-0.78405842265379</v>
+        <v>-0.9543039319872476</v>
       </c>
       <c r="BW39">
-        <v>2.178288785468453</v>
+        <v>1.450450450450452</v>
       </c>
       <c r="BX39">
-        <v>-0.4961318524747637</v>
+        <v>-0.3031784841075796</v>
       </c>
       <c r="BY39">
-        <v>1.078703256994218</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="BZ39">
-        <v>13.07413372067849</v>
+        <v>19.79895561357702</v>
       </c>
       <c r="CA39">
-        <v>-0.7187809857975183</v>
+        <v>-0.3369065849923432</v>
       </c>
       <c r="CB39">
-        <v>-0.6643213292611164</v>
+        <v>-0.4072727272727273</v>
       </c>
       <c r="CC39">
-        <v>0.4270581721958949</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD39">
-        <v>0.5176312918605555</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE39">
-        <v>-0.5213501645395457</v>
+        <v>-0.2123671128513661</v>
       </c>
       <c r="CF39">
-        <v>0.2390657338180147</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CG39">
-        <v>0.4816883707483152</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="CH39">
-        <v>-0.06561863508744797</v>
+        <v>-0.009088027003550075</v>
       </c>
       <c r="CI39">
-        <v>0.07512405797378513</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="CJ39">
-        <v>-0.4378009045699415</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK39">
-        <v>-0.686187394522917</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL39">
         <v>1</v>
       </c>
       <c r="CM39">
-        <v>-0.05048869646426692</v>
+        <v>0.09013068949977468</v>
       </c>
       <c r="CN39">
-        <v>-0.8228788000267325</v>
+        <v>-0.2544434050514499</v>
       </c>
       <c r="CO39">
-        <v>-0.9578202891858031</v>
+        <v>-1</v>
       </c>
       <c r="CP39">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ39">
-        <v>-0.9926868404107373</v>
+        <v>-1</v>
       </c>
       <c r="CR39">
         <v>1</v>
@@ -13262,28 +13262,28 @@
         <v>0</v>
       </c>
       <c r="CU39">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV39">
-        <v>1.23970426084518</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="CW39">
-        <v>0.40488288027607</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX39">
-        <v>-1.303083801265935</v>
+        <v>-0.512581155598588</v>
       </c>
       <c r="CY39">
-        <v>-2.152467298645285</v>
+        <v>-0.8036033705042303</v>
       </c>
       <c r="CZ39">
-        <v>-1.334551988223805</v>
+        <v>-0.6670567056941001</v>
       </c>
       <c r="DA39">
-        <v>-0.6461350071274159</v>
+        <v>-0.4139344262295082</v>
       </c>
       <c r="DB39">
-        <v>-0.3696506339747714</v>
+        <v>-0.1698309373801119</v>
       </c>
       <c r="DC39">
         <v>0</v>
@@ -13297,28 +13297,28 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.3488845081709108</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D40">
-        <v>0.1323500168146012</v>
+        <v>-0.25</v>
       </c>
       <c r="E40">
-        <v>-0.1212012268621866</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="F40">
-        <v>-0.3258440776804413</v>
+        <v>-0.3112878365608067</v>
       </c>
       <c r="G40">
-        <v>-0.1167749580550129</v>
+        <v>-0.3134808914381689</v>
       </c>
       <c r="H40">
-        <v>0.6719536623403446</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="I40">
-        <v>1.753453358561281</v>
+        <v>1.6</v>
       </c>
       <c r="J40">
-        <v>1.20030853680937</v>
+        <v>1.18000860699549</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -13342,13 +13342,13 @@
         <v>1</v>
       </c>
       <c r="R40">
-        <v>-0.8790724524329414</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S40">
-        <v>-0.7463091116561581</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T40">
-        <v>0.8829943692284929</v>
+        <v>1.191489361702128</v>
       </c>
       <c r="U40">
         <v>9</v>
@@ -13486,94 +13486,94 @@
         <v>1</v>
       </c>
       <c r="BN40">
-        <v>-0.2450380717837762</v>
+        <v>-0.34575260804769</v>
       </c>
       <c r="BO40">
-        <v>-0.3726813022137783</v>
+        <v>-0.1666708980953493</v>
       </c>
       <c r="BP40">
-        <v>-0.4042612165571029</v>
+        <v>-0.2372715798019777</v>
       </c>
       <c r="BQ40">
-        <v>-0.2223339885650944</v>
+        <v>-0.003696857670979588</v>
       </c>
       <c r="BR40">
-        <v>-1.034421765787293</v>
+        <v>-0.6591928251121076</v>
       </c>
       <c r="BS40">
-        <v>-0.908764499452382</v>
+        <v>-0.611111111111111</v>
       </c>
       <c r="BT40">
-        <v>2.468110506315801</v>
+        <v>2.791118773377737</v>
       </c>
       <c r="BU40">
-        <v>0.577907578711241</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="BV40">
-        <v>5.314499935632681</v>
+        <v>7.934112646121148</v>
       </c>
       <c r="BW40">
-        <v>0.5696440034049669</v>
+        <v>0.08108108108108164</v>
       </c>
       <c r="BX40">
-        <v>-1.542003339483446</v>
+        <v>-1.149144254278728</v>
       </c>
       <c r="BY40">
-        <v>0.8475525590668853</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="BZ40">
-        <v>0.793661525759974</v>
+        <v>1.4177545691906</v>
       </c>
       <c r="CA40">
-        <v>-0.1611315278145019</v>
+        <v>0.4430832057172026</v>
       </c>
       <c r="CB40">
-        <v>-0.942490531658109</v>
+        <v>-0.7272727272727274</v>
       </c>
       <c r="CC40">
-        <v>-0.8541163443917935</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD40">
-        <v>-0.7039629290820079</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="CE40">
-        <v>-0.7221186235716437</v>
+        <v>-0.4000218238555431</v>
       </c>
       <c r="CF40">
-        <v>-0.2390657338180147</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG40">
-        <v>-0.4958968036675604</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH40">
-        <v>-0.4164089453634495</v>
+        <v>-0.3392420606406232</v>
       </c>
       <c r="CI40">
-        <v>-0.7912491508134406</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="CJ40">
-        <v>-0.04360792943635051</v>
+        <v>0.19430151839157</v>
       </c>
       <c r="CK40">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL40">
         <v>1</v>
       </c>
       <c r="CM40">
-        <v>-0.8634683235979734</v>
+        <v>-0.71203244704822</v>
       </c>
       <c r="CN40">
-        <v>-1.161309728949861</v>
+        <v>-0.5762394761459311</v>
       </c>
       <c r="CO40">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP40">
-        <v>0.539278561390196</v>
+        <v>0.25</v>
       </c>
       <c r="CQ40">
-        <v>-0.9926868404107373</v>
+        <v>-1</v>
       </c>
       <c r="CR40">
         <v>1</v>
@@ -13585,28 +13585,28 @@
         <v>0</v>
       </c>
       <c r="CU40">
-        <v>-1.032031287718137</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV40">
-        <v>-1.416804869537348</v>
+        <v>-1.055555555555556</v>
       </c>
       <c r="CW40">
-        <v>0.86760617202015</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="CX40">
-        <v>-1.956409265821596</v>
+        <v>-0.855733130003107</v>
       </c>
       <c r="CY40">
-        <v>-3.096211608032858</v>
+        <v>-1.258934907891877</v>
       </c>
       <c r="CZ40">
-        <v>-1.638804516295132</v>
+        <v>-0.8987722898139859</v>
       </c>
       <c r="DA40">
-        <v>-0.44543082523069</v>
+        <v>-0.2581967213114754</v>
       </c>
       <c r="DB40">
-        <v>-0.1172387076058898</v>
+        <v>0</v>
       </c>
       <c r="DC40">
         <v>0</v>
@@ -13620,28 +13620,28 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.6124745178909319</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D41">
-        <v>0.5924290334373143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41">
-        <v>-0.07574668140764115</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F41">
-        <v>-0.6314624803046824</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G41">
-        <v>0.1009228408661981</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H41">
-        <v>-1.615548166903382</v>
+        <v>-1.709401709401709</v>
       </c>
       <c r="I41">
-        <v>-0.5548335809931334</v>
+        <v>-0.16</v>
       </c>
       <c r="J41">
-        <v>0.6001542684046849</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -13665,13 +13665,13 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <v>-0.6313836758321998</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S41">
-        <v>-0.5942548083932233</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T41">
-        <v>-0.3396132189340357</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U41">
         <v>3</v>
@@ -13809,94 +13809,94 @@
         <v>1</v>
       </c>
       <c r="BN41">
-        <v>4.271081474814494</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO41">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP41">
-        <v>1.632365842704443</v>
+        <v>1.836748932823372</v>
       </c>
       <c r="BQ41">
-        <v>-0.4402616359414739</v>
+        <v>-0.1737523105360439</v>
       </c>
       <c r="BR41">
-        <v>0.1548046776988218</v>
+        <v>0.1928251121076236</v>
       </c>
       <c r="BS41">
-        <v>-0.175889903119816</v>
+        <v>0.08333333333333341</v>
       </c>
       <c r="BT41">
-        <v>-0.9416744155806005</v>
+        <v>-1.085424436498806</v>
       </c>
       <c r="BU41">
-        <v>-0.313931207128036</v>
+        <v>-0.6486486486486487</v>
       </c>
       <c r="BV41">
-        <v>-0.6936445971603032</v>
+        <v>-0.8225292242295429</v>
       </c>
       <c r="BW41">
-        <v>-0.1500128727813291</v>
+        <v>-0.531531531531531</v>
       </c>
       <c r="BX41">
-        <v>-0.01249185848230937</v>
+        <v>0.08801955990220034</v>
       </c>
       <c r="BY41">
-        <v>0.7705023264244413</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="BZ41">
-        <v>6.933897623219231</v>
+        <v>10.60835509138381</v>
       </c>
       <c r="CA41">
-        <v>-0.1377744824539567</v>
+        <v>0.4757529351710056</v>
       </c>
       <c r="CB41">
-        <v>-0.03211859654067852</v>
+        <v>0.3200000000000002</v>
       </c>
       <c r="CC41">
-        <v>1.281174516587688</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD41">
-        <v>0.9676923206288682</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CE41">
-        <v>0.6175523521374027</v>
+        <v>0.8521448312024256</v>
       </c>
       <c r="CF41">
-        <v>0.4781314676360284</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG41">
-        <v>0.5631538019496382</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="CH41">
-        <v>0.5360417149199671</v>
+        <v>0.557177874919884</v>
       </c>
       <c r="CI41">
-        <v>0.8177296655056929</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="CJ41">
-        <v>-0.124308853479449</v>
+        <v>0.1380360970657061</v>
       </c>
       <c r="CK41">
-        <v>-0.686187394522917</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL41">
         <v>1</v>
       </c>
       <c r="CM41">
-        <v>-0.04135409391220281</v>
+        <v>0.09914375844975215</v>
       </c>
       <c r="CN41">
-        <v>-0.3585200835973242</v>
+        <v>0.1870907390084191</v>
       </c>
       <c r="CO41">
-        <v>0.6385468594572006</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="CP41">
-        <v>108.4453812745359</v>
+        <v>83.74999999999993</v>
       </c>
       <c r="CQ41">
-        <v>4.074208788650481</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="CR41">
         <v>1</v>
@@ -13908,28 +13908,28 @@
         <v>0</v>
       </c>
       <c r="CU41">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV41">
-        <v>0.4427515217304213</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="CW41">
-        <v>0.5784041146801</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CX41">
-        <v>-0.2544964306540992</v>
+        <v>0.03817776332066518</v>
       </c>
       <c r="CY41">
-        <v>-1.740651600003434</v>
+        <v>-0.6049132450987115</v>
       </c>
       <c r="CZ41">
-        <v>3.192725629477548</v>
+        <v>2.7808711860098</v>
       </c>
       <c r="DA41">
-        <v>3.452455654763618</v>
+        <v>2.766393442622951</v>
       </c>
       <c r="DB41">
-        <v>-3.146181824032466</v>
+        <v>-2.037971248561341</v>
       </c>
       <c r="DC41">
         <v>0</v>
@@ -13943,28 +13943,28 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.5163386152847477</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D42">
-        <v>0.7238801810438038</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
-        <v>0.06061695495599521</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="F42">
-        <v>-0.5698369267688971</v>
+        <v>-0.5311611100085307</v>
       </c>
       <c r="G42">
-        <v>0.3029905170918944</v>
+        <v>0.06174856649141131</v>
       </c>
       <c r="H42">
-        <v>0.986485163861357</v>
+        <v>1.401709401709402</v>
       </c>
       <c r="I42">
-        <v>0.004751131626118565</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J42">
-        <v>-2.40061707361874</v>
+        <v>-2.36001721399098</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -13988,13 +13988,13 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <v>-0.9956318767156432</v>
+        <v>-0.463768115942029</v>
       </c>
       <c r="S42">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T42">
-        <v>-0.2716905751472286</v>
+        <v>-0.2553191489361702</v>
       </c>
       <c r="U42">
         <v>6</v>
@@ -14132,94 +14132,94 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>0.6845405131056851</v>
+        <v>2.82804259360787</v>
       </c>
       <c r="BO42">
-        <v>-0.1795831359890727</v>
+        <v>0.004062171535348508</v>
       </c>
       <c r="BP42">
-        <v>-0.1118481396912513</v>
+        <v>0.06051034194051719</v>
       </c>
       <c r="BQ42">
-        <v>2.658101002844448</v>
+        <v>2.243992606284658</v>
       </c>
       <c r="BR42">
-        <v>3.033984488244152</v>
+        <v>2.25560538116592</v>
       </c>
       <c r="BS42">
-        <v>-0.1172599354132107</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="BT42">
-        <v>1.317036615484531</v>
+        <v>1.482476798069095</v>
       </c>
       <c r="BU42">
-        <v>1.102518629204933</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV42">
-        <v>-0.4282362707116811</v>
+        <v>-0.4357066950053133</v>
       </c>
       <c r="BW42">
-        <v>1.183468986034456</v>
+        <v>0.6036036036036054</v>
       </c>
       <c r="BX42">
-        <v>0.5316031347592017</v>
+        <v>0.5281173594132027</v>
       </c>
       <c r="BY42">
-        <v>-0.07705023264244412</v>
+        <v>-0.2280701754385965</v>
       </c>
       <c r="BZ42">
-        <v>0.1831266865239682</v>
+        <v>0.5039164490861616</v>
       </c>
       <c r="CA42">
-        <v>0.761471763927033</v>
+        <v>1.73353751914242</v>
       </c>
       <c r="CB42">
-        <v>0.1322541139666352</v>
+        <v>0.5090909090909091</v>
       </c>
       <c r="CC42">
-        <v>-0.4270581721958986</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD42">
-        <v>-0.5753740637196328</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="CE42">
-        <v>-0.9044919170469309</v>
+        <v>-0.5704829004956418</v>
       </c>
       <c r="CF42">
-        <v>-0.4781314676360295</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG42">
-        <v>-0.6588276660702064</v>
+        <v>-0.5633802816901409</v>
       </c>
       <c r="CH42">
-        <v>-0.7732807029783751</v>
+        <v>-0.6751197825053372</v>
       </c>
       <c r="CI42">
-        <v>-0.2961787457921688</v>
+        <v>-0.0425531914893617</v>
       </c>
       <c r="CJ42">
-        <v>0.4125843291648529</v>
+        <v>0.5123629277266876</v>
       </c>
       <c r="CK42">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL42">
         <v>1</v>
       </c>
       <c r="CM42">
-        <v>-0.07241174258922112</v>
+        <v>0.06849932401982844</v>
       </c>
       <c r="CN42">
-        <v>-0.5001888445418893</v>
+        <v>0.05238540692235757</v>
       </c>
       <c r="CO42">
-        <v>0.3192734297285996</v>
+        <v>0</v>
       </c>
       <c r="CP42">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ42">
-        <v>-0.4296984371817127</v>
+        <v>-0.5</v>
       </c>
       <c r="CR42">
         <v>1</v>
@@ -14231,28 +14231,28 @@
         <v>0</v>
       </c>
       <c r="CU42">
-        <v>0.5160156438590684</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV42">
-        <v>-0.2656509130382528</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CW42">
-        <v>0.80976576055214</v>
+        <v>0.48</v>
       </c>
       <c r="CX42">
-        <v>0.08196618359206617</v>
+        <v>0.2149010301389926</v>
       </c>
       <c r="CY42">
-        <v>3.235454758585589</v>
+        <v>1.795925770217974</v>
       </c>
       <c r="CZ42">
-        <v>1.70797329248947</v>
+        <v>1.650099135504757</v>
       </c>
       <c r="DA42">
-        <v>-0.1496562413828835</v>
+        <v>-0.02868852459016394</v>
       </c>
       <c r="DB42">
-        <v>-1.126886413081416</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC42">
         <v>0</v>
@@ -14266,28 +14266,28 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.4450204107770951</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D43">
-        <v>-0.1305522783983778</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="E43">
-        <v>0.3787987731378134</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F43">
-        <v>0.573811617366816</v>
+        <v>0.4994336390272535</v>
       </c>
       <c r="G43">
-        <v>0.3248279245955447</v>
+        <v>0.08126908226826109</v>
       </c>
       <c r="H43">
-        <v>-0.5289847980126117</v>
+        <v>-0.4102564102564102</v>
       </c>
       <c r="I43">
-        <v>-1.534106828076824</v>
+        <v>-0.9066666666666666</v>
       </c>
       <c r="J43">
-        <v>1.100282825408589</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -14311,13 +14311,13 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>-0.7188032440442262</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S43">
-        <v>-0.6702819600246906</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0.4075358627208429</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U43">
         <v>9</v>
@@ -14455,94 +14455,94 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>-0.2446264496025232</v>
+        <v>-0.3443472351991846</v>
       </c>
       <c r="BO43">
-        <v>-0.4255156803147565</v>
+        <v>-0.2133858707518571</v>
       </c>
       <c r="BP43">
-        <v>-0.3216221967084167</v>
+        <v>-0.1531152677614345</v>
       </c>
       <c r="BQ43">
-        <v>-0.8761169306942336</v>
+        <v>-0.5138632162661733</v>
       </c>
       <c r="BR43">
-        <v>-0.2582950342489864</v>
+        <v>-0.1031390134529146</v>
       </c>
       <c r="BS43">
-        <v>-1.113969386425501</v>
+        <v>-0.8055555555555557</v>
       </c>
       <c r="BT43">
-        <v>-0.5073069096065367</v>
+        <v>-0.5915972760049791</v>
       </c>
       <c r="BU43">
-        <v>-1.730381043461005</v>
+        <v>-2.108108108108108</v>
       </c>
       <c r="BV43">
-        <v>-0.3669881953773836</v>
+        <v>-0.3464399574920295</v>
       </c>
       <c r="BW43">
-        <v>-1.758657654844815</v>
+        <v>-1.900900900900901</v>
       </c>
       <c r="BX43">
-        <v>-0.7560883492457077</v>
+        <v>-0.5134474327628361</v>
       </c>
       <c r="BY43">
-        <v>0.6934520937819971</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="BZ43">
-        <v>-0.6506894653469196</v>
+        <v>-0.744125326370757</v>
       </c>
       <c r="CA43">
-        <v>-0.7873923065441197</v>
+        <v>-0.4328739152628893</v>
       </c>
       <c r="CB43">
-        <v>-1.005710804930153</v>
+        <v>-0.8000000000000002</v>
       </c>
       <c r="CC43">
-        <v>-0.8541163443917935</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD43">
-        <v>-0.5753740637196328</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="CE43">
-        <v>-0.9193182324182005</v>
+        <v>-0.5843407940097201</v>
       </c>
       <c r="CF43">
-        <v>-0.7171972014540442</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG43">
-        <v>-0.8217585284728522</v>
+        <v>-0.676056338028169</v>
       </c>
       <c r="CH43">
-        <v>-0.9410823984814285</v>
+        <v>-0.8330500473917418</v>
       </c>
       <c r="CI43">
-        <v>-0.04864354328153284</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ43">
-        <v>0.7218153232502333</v>
+        <v>0.7279616011686135</v>
       </c>
       <c r="CK43">
-        <v>3.293553857164788</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="CL43">
         <v>1</v>
       </c>
       <c r="CM43">
-        <v>1.570839825846993</v>
+        <v>1.689887841369987</v>
       </c>
       <c r="CN43">
-        <v>1.334550056033488</v>
+        <v>1.796941590271282</v>
       </c>
       <c r="CO43">
-        <v>1.596367148643004</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP43">
-        <v>-0.1068657662334314</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ43">
-        <v>-2.118663646868784</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="CR43">
         <v>1</v>
@@ -14554,28 +14554,28 @@
         <v>0</v>
       </c>
       <c r="CU43">
-        <v>1.032031287718137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV43">
-        <v>0.7969527391147583</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW43">
-        <v>-0.05784041146801</v>
+        <v>-0.32</v>
       </c>
       <c r="CX43">
-        <v>-1.574213869056534</v>
+        <v>-0.6549892249764634</v>
       </c>
       <c r="CY43">
-        <v>-1.929400461880949</v>
+        <v>-0.6959795525762409</v>
       </c>
       <c r="CZ43">
-        <v>-1.204737576246705</v>
+        <v>-0.5681913898029489</v>
       </c>
       <c r="DA43">
-        <v>-0.07571259542093182</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="DB43">
-        <v>-2.136534118556941</v>
+        <v>-1.358647499040894</v>
       </c>
       <c r="DC43">
         <v>0</v>
@@ -14589,28 +14589,28 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.8047463231033004</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="D44">
-        <v>1.183959197666517</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E44">
-        <v>0.1969805913196316</v>
+        <v>-0.05633802816901409</v>
       </c>
       <c r="F44">
-        <v>-0.747902296606913</v>
+        <v>-0.6916240739856852</v>
       </c>
       <c r="G44">
-        <v>0.6237693997263531</v>
+        <v>0.3484936500504139</v>
       </c>
       <c r="H44">
-        <v>-0.3860159336848788</v>
+        <v>-0.2393162393162393</v>
       </c>
       <c r="I44">
-        <v>-0.7646778482253529</v>
+        <v>-0.32</v>
       </c>
       <c r="J44">
-        <v>-0.7001799798054656</v>
+        <v>-0.6883383540807024</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -14634,13 +14634,13 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <v>-1.08305144492767</v>
+        <v>-0.6376811594202898</v>
       </c>
       <c r="S44">
-        <v>-0.8223362632876255</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -14778,94 +14778,94 @@
         <v>1</v>
       </c>
       <c r="BN44">
-        <v>3.931380092263943</v>
+        <v>13.91350007335738</v>
       </c>
       <c r="BO44">
-        <v>1.747033947197468</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP44">
-        <v>1.440778847637697</v>
+        <v>1.641644308285604</v>
       </c>
       <c r="BQ44">
-        <v>0.5830507952171795</v>
+        <v>0.6247689463955642</v>
       </c>
       <c r="BR44">
-        <v>0.9559677554157832</v>
+        <v>0.7668161434977584</v>
       </c>
       <c r="BS44">
-        <v>0.05862996770660468</v>
+        <v>0.3055555555555552</v>
       </c>
       <c r="BT44">
-        <v>-0.08379859128182436</v>
+        <v>-0.1101157945234975</v>
       </c>
       <c r="BU44">
-        <v>0.3156020534643948</v>
+        <v>0</v>
       </c>
       <c r="BV44">
-        <v>-0.6382296718578437</v>
+        <v>-0.7417640807651436</v>
       </c>
       <c r="BW44">
-        <v>0.01931815690956504</v>
+        <v>-0.387387387387386</v>
       </c>
       <c r="BX44">
-        <v>-0.09712885743098922</v>
+        <v>0.01955990220048858</v>
       </c>
       <c r="BY44">
-        <v>0.4237762795334427</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="BZ44">
-        <v>0.5110711144564513</v>
+        <v>0.994778067885117</v>
       </c>
       <c r="CA44">
-        <v>2.243184328986618</v>
+        <v>3.806023481368045</v>
       </c>
       <c r="CB44">
-        <v>0.650660354797394</v>
+        <v>1.105454545454545</v>
       </c>
       <c r="CC44">
-        <v>-1.281174516587692</v>
+        <v>-0.7500000000000028</v>
       </c>
       <c r="CD44">
-        <v>-0.8968462271255705</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="CE44">
-        <v>-1.385587952693286</v>
+        <v>-1.020154815943468</v>
       </c>
       <c r="CF44">
-        <v>-0.2390657338180147</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG44">
-        <v>-0.4144313724662375</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH44">
-        <v>-0.676521307119042</v>
+        <v>-0.5840525440456704</v>
       </c>
       <c r="CI44">
-        <v>-1.286319555834712</v>
+        <v>-0.723404255319149</v>
       </c>
       <c r="CJ44">
-        <v>-0.4378009045699415</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK44">
-        <v>-0.02289718590829909</v>
+        <v>0</v>
       </c>
       <c r="CL44">
         <v>1</v>
       </c>
       <c r="CM44">
-        <v>-0.7648146160356813</v>
+        <v>-0.6146913023884637</v>
       </c>
       <c r="CN44">
-        <v>-1.350201410209281</v>
+        <v>-0.7558465855940134</v>
       </c>
       <c r="CO44">
-        <v>0.9578202891858016</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP44">
-        <v>0.2162063975783823</v>
+        <v>0</v>
       </c>
       <c r="CQ44">
-        <v>-0.9926868404107373</v>
+        <v>-1</v>
       </c>
       <c r="CR44">
         <v>1</v>
@@ -14877,28 +14877,28 @@
         <v>0</v>
       </c>
       <c r="CU44">
-        <v>0.5160156438590684</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV44">
-        <v>1.505355173883432</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CW44">
-        <v>-0.11568082293602</v>
+        <v>-0.3733333333333334</v>
       </c>
       <c r="CX44">
-        <v>-1.79307789968268</v>
+        <v>-0.7699451364019773</v>
       </c>
       <c r="CY44">
-        <v>-2.941780721042164</v>
+        <v>-1.184426110864808</v>
       </c>
       <c r="CZ44">
-        <v>-0.9288819507953681</v>
+        <v>-0.3581025935342525</v>
       </c>
       <c r="DA44">
-        <v>-0.6989518971002384</v>
+        <v>-0.4549180327868853</v>
       </c>
       <c r="DB44">
-        <v>-0.4958565971592122</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC44">
         <v>0</v>
